--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="80">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -125,6 +125,9 @@
     <t>FBC Colorado</t>
   </si>
   <si>
+    <t>FBC Colorado II</t>
+  </si>
+  <si>
     <t>Fedato Futebol Clube</t>
   </si>
   <si>
@@ -155,7 +158,7 @@
     <t>lsauer fc</t>
   </si>
   <si>
-    <t>Luis lemes  inter</t>
+    <t>Luis lemes inter</t>
   </si>
   <si>
     <t>MAFRA MARTINS FC</t>
@@ -206,7 +209,7 @@
     <t>RHANKA DENTY FC25</t>
   </si>
   <si>
-    <t>Rolo Compressor  ZN</t>
+    <t>Rolo Compressor ZN</t>
   </si>
   <si>
     <t>RS Expressões da Arte</t>
@@ -615,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1614,62 +1617,56 @@
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17">
-        <v>77.580078125</v>
-      </c>
-      <c r="C17">
-        <v>77.490234375</v>
-      </c>
       <c r="D17">
-        <v>75.419921875</v>
+        <v>80.75</v>
       </c>
       <c r="E17">
-        <v>90.16015625</v>
+        <v>87.56982421875</v>
       </c>
       <c r="F17">
-        <v>81.02001953125</v>
+        <v>76.72998046875</v>
       </c>
       <c r="G17">
-        <v>92.06005859375</v>
+        <v>96.60986328125</v>
       </c>
       <c r="H17">
-        <v>104.31005859375</v>
+        <v>100.08984375</v>
       </c>
       <c r="I17">
-        <v>98.490234375</v>
+        <v>101.5</v>
       </c>
       <c r="J17">
-        <v>62.969970703125</v>
+        <v>87.919921875</v>
       </c>
       <c r="K17">
-        <v>66.06982421875</v>
+        <v>68.669921875</v>
       </c>
       <c r="L17">
-        <v>110.41015625</v>
+        <v>126.81005859375</v>
       </c>
       <c r="M17">
-        <v>56.260009765625</v>
+        <v>85.259765625</v>
       </c>
       <c r="N17">
-        <v>107.64990234375</v>
+        <v>106.97021484375</v>
       </c>
       <c r="O17">
-        <v>78.3798828125</v>
+        <v>81.10009765625</v>
       </c>
       <c r="P17">
-        <v>88.490234375</v>
+        <v>93.10009765625</v>
       </c>
       <c r="Q17">
-        <v>85.0498046875</v>
+        <v>84.3701171875</v>
       </c>
       <c r="R17">
-        <v>58.25</v>
+        <v>48.510009765625</v>
       </c>
       <c r="S17">
-        <v>71.06982421875</v>
+        <v>102.27001953125</v>
       </c>
       <c r="T17">
-        <v>60.1201171875</v>
+        <v>86.39990234375</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1677,61 +1674,61 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>66.5</v>
+        <v>77.580078125</v>
       </c>
       <c r="C18">
-        <v>103.6201171875</v>
+        <v>77.490234375</v>
       </c>
       <c r="D18">
-        <v>76.89990234375</v>
+        <v>75.419921875</v>
       </c>
       <c r="E18">
-        <v>76.509765625</v>
+        <v>90.16015625</v>
       </c>
       <c r="F18">
-        <v>70.41015625</v>
+        <v>81.02001953125</v>
       </c>
       <c r="G18">
-        <v>110.35986328125</v>
+        <v>92.06005859375</v>
       </c>
       <c r="H18">
-        <v>93.5400390625</v>
+        <v>104.31005859375</v>
       </c>
       <c r="I18">
-        <v>112.35009765625</v>
+        <v>98.490234375</v>
       </c>
       <c r="J18">
-        <v>76.02001953125</v>
+        <v>62.969970703125</v>
       </c>
       <c r="K18">
-        <v>65.47021484375</v>
+        <v>66.06982421875</v>
       </c>
       <c r="L18">
-        <v>77.41015625</v>
+        <v>110.41015625</v>
       </c>
       <c r="M18">
-        <v>67.31005859375</v>
+        <v>56.260009765625</v>
       </c>
       <c r="N18">
-        <v>119.41015625</v>
+        <v>107.64990234375</v>
       </c>
       <c r="O18">
-        <v>73.39990234375</v>
+        <v>78.3798828125</v>
       </c>
       <c r="P18">
-        <v>95.39990234375</v>
+        <v>88.490234375</v>
       </c>
       <c r="Q18">
-        <v>76.81005859375</v>
+        <v>85.0498046875</v>
       </c>
       <c r="R18">
-        <v>57.510009765625</v>
+        <v>58.25</v>
       </c>
       <c r="S18">
-        <v>104</v>
+        <v>71.06982421875</v>
       </c>
       <c r="T18">
-        <v>60.429931640625</v>
+        <v>60.1201171875</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1739,61 +1736,61 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>100.33984375</v>
+        <v>66.5</v>
       </c>
       <c r="C19">
-        <v>86.39013671875</v>
+        <v>103.6201171875</v>
       </c>
       <c r="D19">
-        <v>86.7998046875</v>
+        <v>76.89990234375</v>
       </c>
       <c r="E19">
-        <v>79.580078125</v>
+        <v>76.509765625</v>
       </c>
       <c r="F19">
-        <v>73.009765625</v>
+        <v>70.41015625</v>
       </c>
       <c r="G19">
-        <v>78.85986328125</v>
+        <v>110.35986328125</v>
       </c>
       <c r="H19">
-        <v>90.35986328125</v>
+        <v>93.5400390625</v>
       </c>
       <c r="I19">
-        <v>98.14990234375</v>
+        <v>112.35009765625</v>
       </c>
       <c r="J19">
-        <v>65.419921875</v>
+        <v>76.02001953125</v>
       </c>
       <c r="K19">
-        <v>53.969970703125</v>
+        <v>65.47021484375</v>
       </c>
       <c r="L19">
-        <v>102.85986328125</v>
+        <v>77.41015625</v>
       </c>
       <c r="M19">
-        <v>44.4599609375</v>
+        <v>67.31005859375</v>
       </c>
       <c r="N19">
-        <v>116.91015625</v>
+        <v>119.41015625</v>
       </c>
       <c r="O19">
-        <v>72.2998046875</v>
+        <v>73.39990234375</v>
       </c>
       <c r="P19">
-        <v>82.10009765625</v>
+        <v>95.39990234375</v>
       </c>
       <c r="Q19">
-        <v>54.2900390625</v>
+        <v>76.81005859375</v>
       </c>
       <c r="R19">
-        <v>75.2099609375</v>
+        <v>57.510009765625</v>
       </c>
       <c r="S19">
-        <v>69.52001953125</v>
+        <v>104</v>
       </c>
       <c r="T19">
-        <v>71.2998046875</v>
+        <v>60.429931640625</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1801,61 +1798,61 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>95.22998046875</v>
+        <v>100.33984375</v>
       </c>
       <c r="C20">
-        <v>59.219970703125</v>
+        <v>86.39013671875</v>
       </c>
       <c r="D20">
-        <v>95.5498046875</v>
+        <v>86.7998046875</v>
       </c>
       <c r="E20">
-        <v>85.669921875</v>
+        <v>79.580078125</v>
       </c>
       <c r="F20">
-        <v>86.02978515625</v>
+        <v>73.009765625</v>
       </c>
       <c r="G20">
-        <v>78.919921875</v>
+        <v>78.85986328125</v>
       </c>
       <c r="H20">
-        <v>93.740234375</v>
+        <v>90.35986328125</v>
       </c>
       <c r="I20">
-        <v>73.509765625</v>
+        <v>98.14990234375</v>
       </c>
       <c r="J20">
-        <v>64</v>
+        <v>65.419921875</v>
       </c>
       <c r="K20">
-        <v>53.3701171875</v>
+        <v>53.969970703125</v>
       </c>
       <c r="L20">
-        <v>97.81005859375</v>
+        <v>102.85986328125</v>
       </c>
       <c r="M20">
-        <v>69.2998046875</v>
+        <v>44.4599609375</v>
       </c>
       <c r="N20">
-        <v>67.91015625</v>
+        <v>116.91015625</v>
       </c>
       <c r="O20">
-        <v>48.199951171875</v>
+        <v>72.2998046875</v>
       </c>
       <c r="P20">
-        <v>77.97998046875</v>
+        <v>82.10009765625</v>
       </c>
       <c r="Q20">
-        <v>86.7099609375</v>
+        <v>54.2900390625</v>
       </c>
       <c r="R20">
-        <v>57.2099609375</v>
+        <v>75.2099609375</v>
       </c>
       <c r="S20">
-        <v>84.77978515625</v>
+        <v>69.52001953125</v>
       </c>
       <c r="T20">
-        <v>42.530029296875</v>
+        <v>71.2998046875</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1863,61 +1860,61 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>64.7900390625</v>
+        <v>95.22998046875</v>
       </c>
       <c r="C21">
-        <v>94.47998046875</v>
+        <v>59.219970703125</v>
       </c>
       <c r="D21">
-        <v>65.1201171875</v>
+        <v>95.5498046875</v>
       </c>
       <c r="E21">
-        <v>108.16015625</v>
+        <v>85.669921875</v>
       </c>
       <c r="F21">
-        <v>83.47998046875</v>
+        <v>86.02978515625</v>
       </c>
       <c r="G21">
-        <v>82.64990234375</v>
+        <v>78.919921875</v>
       </c>
       <c r="H21">
-        <v>98.18994140625</v>
+        <v>93.740234375</v>
       </c>
       <c r="I21">
-        <v>92.490234375</v>
+        <v>73.509765625</v>
       </c>
       <c r="J21">
-        <v>91.56982421875</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>66.47021484375</v>
+        <v>53.3701171875</v>
       </c>
       <c r="L21">
-        <v>125.60986328125</v>
+        <v>97.81005859375</v>
       </c>
       <c r="M21">
-        <v>55.760009765625</v>
+        <v>69.2998046875</v>
       </c>
       <c r="N21">
-        <v>113.509765625</v>
+        <v>67.91015625</v>
       </c>
       <c r="O21">
-        <v>66.39990234375</v>
+        <v>48.199951171875</v>
       </c>
       <c r="P21">
-        <v>98.10009765625</v>
+        <v>77.97998046875</v>
       </c>
       <c r="Q21">
-        <v>80.85986328125</v>
+        <v>86.7099609375</v>
       </c>
       <c r="R21">
-        <v>67.14990234375</v>
+        <v>57.2099609375</v>
       </c>
       <c r="S21">
-        <v>108.7001953125</v>
+        <v>84.77978515625</v>
       </c>
       <c r="T21">
-        <v>72.2998046875</v>
+        <v>42.530029296875</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1925,61 +1922,61 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <v>64.5498046875</v>
+        <v>64.7900390625</v>
       </c>
       <c r="C22">
-        <v>44.919921875</v>
+        <v>94.47998046875</v>
       </c>
       <c r="D22">
-        <v>65.10009765625</v>
+        <v>65.1201171875</v>
       </c>
       <c r="E22">
-        <v>80.6201171875</v>
+        <v>108.16015625</v>
       </c>
       <c r="F22">
-        <v>77.330078125</v>
+        <v>83.47998046875</v>
       </c>
       <c r="G22">
-        <v>100.0498046875</v>
+        <v>82.64990234375</v>
       </c>
       <c r="H22">
-        <v>120.83984375</v>
+        <v>98.18994140625</v>
       </c>
       <c r="I22">
-        <v>114.14013671875</v>
+        <v>92.490234375</v>
       </c>
       <c r="J22">
-        <v>76.31982421875</v>
+        <v>91.56982421875</v>
       </c>
       <c r="K22">
-        <v>71.97021484375</v>
+        <v>66.47021484375</v>
       </c>
       <c r="L22">
-        <v>105.56005859375</v>
+        <v>125.60986328125</v>
       </c>
       <c r="M22">
-        <v>78.4599609375</v>
+        <v>55.760009765625</v>
       </c>
       <c r="N22">
-        <v>128.5400390625</v>
+        <v>113.509765625</v>
       </c>
       <c r="O22">
-        <v>72.39990234375</v>
+        <v>66.39990234375</v>
       </c>
       <c r="P22">
-        <v>87.60009765625</v>
+        <v>98.10009765625</v>
       </c>
       <c r="Q22">
-        <v>83.3798828125</v>
+        <v>80.85986328125</v>
       </c>
       <c r="R22">
-        <v>57.7099609375</v>
+        <v>67.14990234375</v>
       </c>
       <c r="S22">
-        <v>88.8701171875</v>
+        <v>108.7001953125</v>
       </c>
       <c r="T22">
-        <v>91.7998046875</v>
+        <v>72.2998046875</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1987,61 +1984,61 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>79.2998046875</v>
+        <v>64.5498046875</v>
       </c>
       <c r="C23">
-        <v>93.0400390625</v>
+        <v>44.919921875</v>
       </c>
       <c r="D23">
-        <v>84.7001953125</v>
+        <v>65.10009765625</v>
       </c>
       <c r="E23">
-        <v>84.47998046875</v>
+        <v>80.6201171875</v>
       </c>
       <c r="F23">
-        <v>72.60986328125</v>
+        <v>77.330078125</v>
       </c>
       <c r="G23">
-        <v>99.56005859375</v>
+        <v>100.0498046875</v>
       </c>
       <c r="H23">
-        <v>87.66015625</v>
+        <v>120.83984375</v>
       </c>
       <c r="I23">
-        <v>98.4501953125</v>
+        <v>114.14013671875</v>
       </c>
       <c r="J23">
-        <v>60.419921875</v>
+        <v>76.31982421875</v>
       </c>
       <c r="K23">
-        <v>40.77001953125</v>
+        <v>71.97021484375</v>
       </c>
       <c r="L23">
-        <v>79.91015625</v>
+        <v>105.56005859375</v>
       </c>
       <c r="M23">
-        <v>71.2099609375</v>
+        <v>78.4599609375</v>
       </c>
       <c r="N23">
-        <v>114.759765625</v>
+        <v>128.5400390625</v>
       </c>
       <c r="O23">
-        <v>59.89990234375</v>
+        <v>72.39990234375</v>
       </c>
       <c r="P23">
-        <v>105.02001953125</v>
+        <v>87.60009765625</v>
       </c>
       <c r="Q23">
-        <v>75.35986328125</v>
+        <v>83.3798828125</v>
       </c>
       <c r="R23">
-        <v>53.090087890625</v>
+        <v>57.7099609375</v>
       </c>
       <c r="S23">
-        <v>92.3701171875</v>
+        <v>88.8701171875</v>
       </c>
       <c r="T23">
-        <v>64.2998046875</v>
+        <v>91.7998046875</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2049,61 +2046,61 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>72.240234375</v>
+        <v>79.2998046875</v>
       </c>
       <c r="C24">
-        <v>103.18994140625</v>
+        <v>93.0400390625</v>
       </c>
       <c r="D24">
-        <v>92.35009765625</v>
+        <v>84.7001953125</v>
       </c>
       <c r="E24">
-        <v>75.6298828125</v>
+        <v>84.47998046875</v>
       </c>
       <c r="F24">
-        <v>84.60986328125</v>
+        <v>72.60986328125</v>
       </c>
       <c r="G24">
-        <v>98.06005859375</v>
+        <v>99.56005859375</v>
       </c>
       <c r="H24">
-        <v>85.68994140625</v>
+        <v>87.66015625</v>
       </c>
       <c r="I24">
-        <v>110.14990234375</v>
+        <v>98.4501953125</v>
       </c>
       <c r="J24">
-        <v>62.1201171875</v>
+        <v>60.419921875</v>
       </c>
       <c r="K24">
-        <v>57.6201171875</v>
+        <v>40.77001953125</v>
       </c>
       <c r="L24">
-        <v>69.14990234375</v>
+        <v>79.91015625</v>
       </c>
       <c r="M24">
-        <v>57.56005859375</v>
+        <v>71.2099609375</v>
       </c>
       <c r="N24">
-        <v>128.3095703125</v>
+        <v>114.759765625</v>
       </c>
       <c r="O24">
-        <v>74</v>
+        <v>59.89990234375</v>
       </c>
       <c r="P24">
-        <v>96.2001953125</v>
+        <v>105.02001953125</v>
       </c>
       <c r="Q24">
-        <v>70.60986328125</v>
+        <v>75.35986328125</v>
       </c>
       <c r="R24">
-        <v>65.5498046875</v>
+        <v>53.090087890625</v>
       </c>
       <c r="S24">
-        <v>61.570068359375</v>
+        <v>92.3701171875</v>
       </c>
       <c r="T24">
-        <v>57.35009765625</v>
+        <v>64.2998046875</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2111,61 +2108,61 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>78.7998046875</v>
+        <v>72.240234375</v>
       </c>
       <c r="C25">
-        <v>96.7900390625</v>
+        <v>103.18994140625</v>
       </c>
       <c r="D25">
-        <v>80.10009765625</v>
+        <v>92.35009765625</v>
       </c>
       <c r="E25">
-        <v>63.929931640625</v>
+        <v>75.6298828125</v>
       </c>
       <c r="F25">
-        <v>74.52001953125</v>
+        <v>84.60986328125</v>
       </c>
       <c r="G25">
-        <v>49.260009765625</v>
+        <v>98.06005859375</v>
       </c>
       <c r="H25">
-        <v>79.66015625</v>
+        <v>85.68994140625</v>
       </c>
       <c r="I25">
-        <v>125.14990234375</v>
+        <v>110.14990234375</v>
       </c>
       <c r="J25">
-        <v>54.719970703125</v>
+        <v>62.1201171875</v>
       </c>
       <c r="K25">
-        <v>44.3701171875</v>
+        <v>57.6201171875</v>
       </c>
       <c r="L25">
-        <v>76.009765625</v>
+        <v>69.14990234375</v>
       </c>
       <c r="M25">
-        <v>54.090087890625</v>
+        <v>57.56005859375</v>
       </c>
       <c r="N25">
-        <v>121.009765625</v>
+        <v>128.3095703125</v>
       </c>
       <c r="O25">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="P25">
-        <v>68.990234375</v>
+        <v>96.2001953125</v>
       </c>
       <c r="Q25">
-        <v>59.199951171875</v>
+        <v>70.60986328125</v>
       </c>
       <c r="R25">
-        <v>58.090087890625</v>
+        <v>65.5498046875</v>
       </c>
       <c r="S25">
-        <v>120.10009765625</v>
+        <v>61.570068359375</v>
       </c>
       <c r="T25">
-        <v>67.52978515625</v>
+        <v>57.35009765625</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2173,61 +2170,61 @@
         <v>43</v>
       </c>
       <c r="B26">
-        <v>72.3798828125</v>
+        <v>78.7998046875</v>
       </c>
       <c r="C26">
-        <v>79.2900390625</v>
+        <v>96.7900390625</v>
       </c>
       <c r="D26">
-        <v>82.169921875</v>
+        <v>80.10009765625</v>
       </c>
       <c r="E26">
-        <v>104.93017578125</v>
+        <v>63.929931640625</v>
       </c>
       <c r="F26">
-        <v>66.22021484375</v>
+        <v>74.52001953125</v>
       </c>
       <c r="G26">
-        <v>108.56005859375</v>
+        <v>49.260009765625</v>
       </c>
       <c r="H26">
-        <v>87.7099609375</v>
+        <v>79.66015625</v>
       </c>
       <c r="I26">
-        <v>118.4501953125</v>
+        <v>125.14990234375</v>
       </c>
       <c r="J26">
-        <v>69.14990234375</v>
+        <v>54.719970703125</v>
       </c>
       <c r="K26">
-        <v>57.169921875</v>
+        <v>44.3701171875</v>
       </c>
       <c r="L26">
-        <v>118.31005859375</v>
+        <v>76.009765625</v>
       </c>
       <c r="M26">
-        <v>65.81005859375</v>
+        <v>54.090087890625</v>
       </c>
       <c r="N26">
-        <v>117.10986328125</v>
+        <v>121.009765625</v>
       </c>
       <c r="O26">
-        <v>73.10009765625</v>
+        <v>54</v>
       </c>
       <c r="P26">
-        <v>98.5</v>
+        <v>68.990234375</v>
       </c>
       <c r="Q26">
-        <v>80.35009765625</v>
+        <v>59.199951171875</v>
       </c>
       <c r="R26">
-        <v>44.159912109375</v>
+        <v>58.090087890625</v>
       </c>
       <c r="S26">
-        <v>82.580078125</v>
+        <v>120.10009765625</v>
       </c>
       <c r="T26">
-        <v>52</v>
+        <v>67.52978515625</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2235,61 +2232,61 @@
         <v>44</v>
       </c>
       <c r="B27">
-        <v>53.639892578125</v>
+        <v>72.3798828125</v>
       </c>
       <c r="C27">
-        <v>80.97021484375</v>
+        <v>79.2900390625</v>
       </c>
       <c r="D27">
-        <v>68.5498046875</v>
+        <v>82.169921875</v>
       </c>
       <c r="E27">
-        <v>67.580078125</v>
+        <v>104.93017578125</v>
       </c>
       <c r="F27">
-        <v>74.91015625</v>
+        <v>66.22021484375</v>
       </c>
       <c r="G27">
-        <v>61.159912109375</v>
+        <v>108.56005859375</v>
       </c>
       <c r="H27">
-        <v>96.759765625</v>
+        <v>87.7099609375</v>
       </c>
       <c r="I27">
-        <v>88.08984375</v>
+        <v>118.4501953125</v>
       </c>
       <c r="J27">
-        <v>89.3701171875</v>
+        <v>69.14990234375</v>
       </c>
       <c r="K27">
-        <v>72.7998046875</v>
+        <v>57.169921875</v>
       </c>
       <c r="L27">
-        <v>77</v>
+        <v>118.31005859375</v>
       </c>
       <c r="M27">
-        <v>49.719970703125</v>
+        <v>65.81005859375</v>
       </c>
       <c r="N27">
-        <v>122.509765625</v>
+        <v>117.10986328125</v>
       </c>
       <c r="O27">
-        <v>28.8499755859375</v>
+        <v>73.10009765625</v>
       </c>
       <c r="P27">
-        <v>94.56005859375</v>
+        <v>98.5</v>
       </c>
       <c r="Q27">
-        <v>72.31982421875</v>
+        <v>80.35009765625</v>
       </c>
       <c r="R27">
-        <v>46.239990234375</v>
+        <v>44.159912109375</v>
       </c>
       <c r="S27">
-        <v>70.91015625</v>
+        <v>82.580078125</v>
       </c>
       <c r="T27">
-        <v>88.830078125</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2297,61 +2294,61 @@
         <v>45</v>
       </c>
       <c r="B28">
-        <v>67.14013671875</v>
+        <v>53.639892578125</v>
       </c>
       <c r="C28">
-        <v>67.81982421875</v>
+        <v>80.97021484375</v>
       </c>
       <c r="D28">
-        <v>68.64990234375</v>
+        <v>68.5498046875</v>
       </c>
       <c r="E28">
-        <v>77.35986328125</v>
+        <v>67.580078125</v>
       </c>
       <c r="F28">
-        <v>59.919921875</v>
+        <v>74.91015625</v>
       </c>
       <c r="G28">
-        <v>46.10009765625</v>
+        <v>61.159912109375</v>
       </c>
       <c r="H28">
-        <v>89.68994140625</v>
+        <v>96.759765625</v>
       </c>
       <c r="I28">
-        <v>98.60986328125</v>
+        <v>88.08984375</v>
       </c>
       <c r="J28">
-        <v>73.7001953125</v>
+        <v>89.3701171875</v>
       </c>
       <c r="K28">
-        <v>84.81982421875</v>
+        <v>72.7998046875</v>
       </c>
       <c r="L28">
-        <v>62.610107421875</v>
+        <v>77</v>
       </c>
       <c r="M28">
-        <v>72.8798828125</v>
+        <v>49.719970703125</v>
       </c>
       <c r="N28">
-        <v>92.8701171875</v>
+        <v>122.509765625</v>
       </c>
       <c r="O28">
-        <v>67.39990234375</v>
+        <v>28.8499755859375</v>
       </c>
       <c r="P28">
-        <v>106</v>
+        <v>94.56005859375</v>
       </c>
       <c r="Q28">
-        <v>64.56005859375</v>
+        <v>72.31982421875</v>
       </c>
       <c r="R28">
-        <v>57.409912109375</v>
+        <v>46.239990234375</v>
       </c>
       <c r="S28">
-        <v>76.8701171875</v>
+        <v>70.91015625</v>
       </c>
       <c r="T28">
-        <v>52.179931640625</v>
+        <v>88.830078125</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2359,61 +2356,61 @@
         <v>46</v>
       </c>
       <c r="B29">
-        <v>66.2001953125</v>
+        <v>67.14013671875</v>
       </c>
       <c r="C29">
-        <v>102.89013671875</v>
+        <v>67.81982421875</v>
       </c>
       <c r="D29">
-        <v>74.2998046875</v>
+        <v>68.64990234375</v>
       </c>
       <c r="E29">
-        <v>119.10986328125</v>
+        <v>77.35986328125</v>
       </c>
       <c r="F29">
-        <v>69.93017578125</v>
+        <v>59.919921875</v>
       </c>
       <c r="G29">
-        <v>107.7001953125</v>
+        <v>46.10009765625</v>
       </c>
       <c r="H29">
-        <v>92.39013671875</v>
+        <v>89.68994140625</v>
       </c>
       <c r="I29">
-        <v>125.14013671875</v>
+        <v>98.60986328125</v>
       </c>
       <c r="J29">
-        <v>96.669921875</v>
+        <v>73.7001953125</v>
       </c>
       <c r="K29">
-        <v>65.3701171875</v>
+        <v>84.81982421875</v>
       </c>
       <c r="L29">
-        <v>132.91015625</v>
+        <v>62.610107421875</v>
       </c>
       <c r="M29">
-        <v>56.4599609375</v>
+        <v>72.8798828125</v>
       </c>
       <c r="N29">
-        <v>117.47021484375</v>
+        <v>92.8701171875</v>
       </c>
       <c r="O29">
-        <v>72.7001953125</v>
+        <v>67.39990234375</v>
       </c>
       <c r="P29">
-        <v>117.7998046875</v>
+        <v>106</v>
       </c>
       <c r="Q29">
-        <v>69.77001953125</v>
+        <v>64.56005859375</v>
       </c>
       <c r="R29">
-        <v>59.81005859375</v>
+        <v>57.409912109375</v>
       </c>
       <c r="S29">
-        <v>105.5</v>
+        <v>76.8701171875</v>
       </c>
       <c r="T29">
-        <v>66.7001953125</v>
+        <v>52.179931640625</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2421,61 +2418,61 @@
         <v>47</v>
       </c>
       <c r="B30">
-        <v>63.5</v>
+        <v>66.2001953125</v>
       </c>
       <c r="C30">
-        <v>46.919921875</v>
+        <v>102.89013671875</v>
       </c>
       <c r="D30">
-        <v>57.77001953125</v>
+        <v>74.2998046875</v>
       </c>
       <c r="E30">
-        <v>89.27001953125</v>
+        <v>119.10986328125</v>
       </c>
       <c r="F30">
-        <v>80.8798828125</v>
+        <v>69.93017578125</v>
       </c>
       <c r="G30">
-        <v>59.969970703125</v>
+        <v>107.7001953125</v>
       </c>
       <c r="H30">
-        <v>93.83984375</v>
+        <v>92.39013671875</v>
       </c>
       <c r="I30">
-        <v>124.47998046875</v>
+        <v>125.14013671875</v>
       </c>
       <c r="J30">
-        <v>65.2001953125</v>
+        <v>96.669921875</v>
       </c>
       <c r="K30">
-        <v>39.35009765625</v>
+        <v>65.3701171875</v>
       </c>
       <c r="L30">
-        <v>73.16015625</v>
+        <v>132.91015625</v>
       </c>
       <c r="M30">
-        <v>30.43994140625</v>
+        <v>56.4599609375</v>
       </c>
       <c r="N30">
-        <v>59.18994140625</v>
+        <v>117.47021484375</v>
       </c>
       <c r="O30">
-        <v>48.25</v>
+        <v>72.7001953125</v>
       </c>
       <c r="P30">
-        <v>42.179931640625</v>
+        <v>117.7998046875</v>
       </c>
       <c r="Q30">
-        <v>63.260009765625</v>
+        <v>69.77001953125</v>
       </c>
       <c r="R30">
-        <v>51.610107421875</v>
+        <v>59.81005859375</v>
       </c>
       <c r="S30">
-        <v>59.340087890625</v>
+        <v>105.5</v>
       </c>
       <c r="T30">
-        <v>58.330078125</v>
+        <v>66.7001953125</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2483,61 +2480,61 @@
         <v>48</v>
       </c>
       <c r="B31">
-        <v>85.14990234375</v>
+        <v>63.5</v>
       </c>
       <c r="C31">
-        <v>75.2900390625</v>
+        <v>46.919921875</v>
       </c>
       <c r="D31">
-        <v>94.6201171875</v>
+        <v>57.77001953125</v>
       </c>
       <c r="E31">
-        <v>116.7099609375</v>
+        <v>89.27001953125</v>
       </c>
       <c r="F31">
-        <v>80.18017578125</v>
+        <v>80.8798828125</v>
       </c>
       <c r="G31">
-        <v>121.35986328125</v>
+        <v>59.969970703125</v>
       </c>
       <c r="H31">
-        <v>113.490234375</v>
+        <v>93.83984375</v>
       </c>
       <c r="I31">
-        <v>105.740234375</v>
+        <v>124.47998046875</v>
       </c>
       <c r="J31">
-        <v>55.27001953125</v>
+        <v>65.2001953125</v>
       </c>
       <c r="K31">
-        <v>70.31982421875</v>
+        <v>39.35009765625</v>
       </c>
       <c r="L31">
-        <v>113.27001953125</v>
+        <v>73.16015625</v>
       </c>
       <c r="M31">
-        <v>59.510009765625</v>
+        <v>30.43994140625</v>
       </c>
       <c r="N31">
-        <v>106.81005859375</v>
+        <v>59.18994140625</v>
       </c>
       <c r="O31">
-        <v>70.5</v>
+        <v>48.25</v>
       </c>
       <c r="P31">
-        <v>77.72021484375</v>
+        <v>42.179931640625</v>
       </c>
       <c r="Q31">
-        <v>75.85986328125</v>
+        <v>63.260009765625</v>
       </c>
       <c r="R31">
-        <v>53.2099609375</v>
+        <v>51.610107421875</v>
       </c>
       <c r="S31">
-        <v>69.60009765625</v>
+        <v>59.340087890625</v>
       </c>
       <c r="T31">
-        <v>71.2001953125</v>
+        <v>58.330078125</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2545,61 +2542,61 @@
         <v>49</v>
       </c>
       <c r="B32">
-        <v>82.68017578125</v>
+        <v>85.14990234375</v>
       </c>
       <c r="C32">
-        <v>82.02001953125</v>
+        <v>75.2900390625</v>
       </c>
       <c r="D32">
-        <v>77.419921875</v>
+        <v>94.6201171875</v>
       </c>
       <c r="E32">
-        <v>82.72998046875</v>
+        <v>116.7099609375</v>
       </c>
       <c r="F32">
-        <v>86.77001953125</v>
+        <v>80.18017578125</v>
       </c>
       <c r="G32">
-        <v>86.9599609375</v>
+        <v>121.35986328125</v>
       </c>
       <c r="H32">
-        <v>79.7001953125</v>
+        <v>113.490234375</v>
       </c>
       <c r="I32">
-        <v>134.5400390625</v>
+        <v>105.740234375</v>
       </c>
       <c r="J32">
-        <v>81.35009765625</v>
+        <v>55.27001953125</v>
       </c>
       <c r="K32">
-        <v>11.70001220703125</v>
+        <v>70.31982421875</v>
       </c>
       <c r="L32">
-        <v>101.2099609375</v>
+        <v>113.27001953125</v>
       </c>
       <c r="M32">
-        <v>66.83984375</v>
+        <v>59.510009765625</v>
       </c>
       <c r="N32">
-        <v>118.85009765625</v>
+        <v>106.81005859375</v>
       </c>
       <c r="O32">
-        <v>69</v>
+        <v>70.5</v>
       </c>
       <c r="P32">
-        <v>110</v>
+        <v>77.72021484375</v>
       </c>
       <c r="Q32">
-        <v>69.39990234375</v>
+        <v>75.85986328125</v>
       </c>
       <c r="R32">
-        <v>50.7099609375</v>
+        <v>53.2099609375</v>
       </c>
       <c r="S32">
-        <v>89.2998046875</v>
+        <v>69.60009765625</v>
       </c>
       <c r="T32">
-        <v>62.1298828125</v>
+        <v>71.2001953125</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2607,61 +2604,61 @@
         <v>50</v>
       </c>
       <c r="B33">
-        <v>96.18994140625</v>
+        <v>82.68017578125</v>
       </c>
       <c r="C33">
-        <v>102.990234375</v>
+        <v>82.02001953125</v>
       </c>
       <c r="D33">
-        <v>54.1201171875</v>
+        <v>77.419921875</v>
       </c>
       <c r="E33">
-        <v>98.27001953125</v>
+        <v>82.72998046875</v>
       </c>
       <c r="F33">
-        <v>92.72998046875</v>
+        <v>86.77001953125</v>
       </c>
       <c r="G33">
-        <v>75.259765625</v>
+        <v>86.9599609375</v>
       </c>
       <c r="H33">
-        <v>80.14013671875</v>
+        <v>79.7001953125</v>
       </c>
       <c r="I33">
-        <v>82.7001953125</v>
+        <v>134.5400390625</v>
       </c>
       <c r="J33">
-        <v>102.7001953125</v>
+        <v>81.35009765625</v>
       </c>
       <c r="K33">
-        <v>78.52001953125</v>
+        <v>11.70001220703125</v>
       </c>
       <c r="L33">
-        <v>92.4599609375</v>
+        <v>101.2099609375</v>
       </c>
       <c r="M33">
-        <v>56.4599609375</v>
+        <v>66.83984375</v>
       </c>
       <c r="N33">
-        <v>70.2099609375</v>
+        <v>118.85009765625</v>
       </c>
       <c r="O33">
-        <v>74.60009765625</v>
+        <v>69</v>
       </c>
       <c r="P33">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q33">
-        <v>75.4599609375</v>
+        <v>69.39990234375</v>
       </c>
       <c r="R33">
-        <v>67.16015625</v>
+        <v>50.7099609375</v>
       </c>
       <c r="S33">
-        <v>65.47021484375</v>
+        <v>89.2998046875</v>
       </c>
       <c r="T33">
-        <v>61.800048828125</v>
+        <v>62.1298828125</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2669,61 +2666,61 @@
         <v>51</v>
       </c>
       <c r="B34">
-        <v>58.989990234375</v>
+        <v>96.18994140625</v>
       </c>
       <c r="C34">
-        <v>55.179931640625</v>
+        <v>102.990234375</v>
       </c>
       <c r="D34">
-        <v>68.1201171875</v>
+        <v>54.1201171875</v>
       </c>
       <c r="E34">
-        <v>77</v>
+        <v>98.27001953125</v>
       </c>
       <c r="F34">
-        <v>40.199951171875</v>
+        <v>92.72998046875</v>
       </c>
       <c r="G34">
-        <v>62.43994140625</v>
+        <v>75.259765625</v>
       </c>
       <c r="H34">
-        <v>105.83984375</v>
+        <v>80.14013671875</v>
       </c>
       <c r="I34">
-        <v>120.47998046875</v>
+        <v>82.7001953125</v>
       </c>
       <c r="J34">
-        <v>67.77978515625</v>
+        <v>102.7001953125</v>
       </c>
       <c r="K34">
-        <v>86.7099609375</v>
+        <v>78.52001953125</v>
       </c>
       <c r="L34">
-        <v>94.41015625</v>
+        <v>92.4599609375</v>
       </c>
       <c r="M34">
-        <v>71.06005859375</v>
+        <v>56.4599609375</v>
       </c>
       <c r="N34">
-        <v>74.75</v>
+        <v>70.2099609375</v>
       </c>
       <c r="O34">
-        <v>70.75</v>
+        <v>74.60009765625</v>
       </c>
       <c r="P34">
-        <v>65.240234375</v>
+        <v>105</v>
       </c>
       <c r="Q34">
-        <v>48.5</v>
+        <v>75.4599609375</v>
       </c>
       <c r="R34">
-        <v>55</v>
+        <v>67.16015625</v>
       </c>
       <c r="S34">
-        <v>102.7001953125</v>
+        <v>65.47021484375</v>
       </c>
       <c r="T34">
-        <v>59.580078125</v>
+        <v>61.800048828125</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2731,61 +2728,61 @@
         <v>52</v>
       </c>
       <c r="B35">
-        <v>76.7900390625</v>
+        <v>58.989990234375</v>
       </c>
       <c r="C35">
-        <v>86.919921875</v>
+        <v>55.179931640625</v>
       </c>
       <c r="D35">
-        <v>58.60009765625</v>
+        <v>68.1201171875</v>
       </c>
       <c r="E35">
-        <v>91.39013671875</v>
+        <v>77</v>
       </c>
       <c r="F35">
-        <v>64.1201171875</v>
+        <v>40.199951171875</v>
       </c>
       <c r="G35">
-        <v>102.85986328125</v>
+        <v>62.43994140625</v>
       </c>
       <c r="H35">
-        <v>105.990234375</v>
+        <v>105.83984375</v>
       </c>
       <c r="I35">
-        <v>70.89013671875</v>
+        <v>120.47998046875</v>
       </c>
       <c r="J35">
-        <v>59.02001953125</v>
+        <v>67.77978515625</v>
       </c>
       <c r="K35">
-        <v>64.64990234375</v>
+        <v>86.7099609375</v>
       </c>
       <c r="L35">
-        <v>90.93994140625</v>
+        <v>94.41015625</v>
       </c>
       <c r="M35">
-        <v>48.360107421875</v>
+        <v>71.06005859375</v>
       </c>
       <c r="N35">
-        <v>89.85986328125</v>
+        <v>74.75</v>
       </c>
       <c r="O35">
-        <v>67.64013671875</v>
+        <v>70.75</v>
       </c>
       <c r="P35">
-        <v>85.81005859375</v>
+        <v>65.240234375</v>
       </c>
       <c r="Q35">
-        <v>81.1201171875</v>
+        <v>48.5</v>
       </c>
       <c r="R35">
-        <v>63.550048828125</v>
+        <v>55</v>
       </c>
       <c r="S35">
-        <v>70.7001953125</v>
+        <v>102.7001953125</v>
       </c>
       <c r="T35">
-        <v>57.449951171875</v>
+        <v>59.580078125</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2793,61 +2790,61 @@
         <v>53</v>
       </c>
       <c r="B36">
-        <v>75.330078125</v>
+        <v>76.7900390625</v>
       </c>
       <c r="C36">
-        <v>71.22021484375</v>
+        <v>86.919921875</v>
       </c>
       <c r="D36">
-        <v>90.2001953125</v>
+        <v>58.60009765625</v>
       </c>
       <c r="E36">
-        <v>112.81005859375</v>
+        <v>91.39013671875</v>
       </c>
       <c r="F36">
-        <v>71.31005859375</v>
+        <v>64.1201171875</v>
       </c>
       <c r="G36">
-        <v>58.300048828125</v>
+        <v>102.85986328125</v>
       </c>
       <c r="H36">
-        <v>99.39013671875</v>
+        <v>105.990234375</v>
       </c>
       <c r="I36">
-        <v>68.89013671875</v>
+        <v>70.89013671875</v>
       </c>
       <c r="J36">
-        <v>98.2001953125</v>
+        <v>59.02001953125</v>
       </c>
       <c r="K36">
-        <v>54.469970703125</v>
+        <v>64.64990234375</v>
       </c>
       <c r="L36">
-        <v>82.259765625</v>
+        <v>90.93994140625</v>
       </c>
       <c r="M36">
-        <v>44.77001953125</v>
+        <v>48.360107421875</v>
       </c>
       <c r="N36">
-        <v>110.41015625</v>
+        <v>89.85986328125</v>
       </c>
       <c r="O36">
-        <v>68.89990234375</v>
+        <v>67.64013671875</v>
       </c>
       <c r="P36">
-        <v>108.7001953125</v>
+        <v>85.81005859375</v>
       </c>
       <c r="Q36">
-        <v>66.66015625</v>
+        <v>81.1201171875</v>
       </c>
       <c r="R36">
-        <v>53.9599609375</v>
+        <v>63.550048828125</v>
       </c>
       <c r="S36">
-        <v>99.2001953125</v>
+        <v>70.7001953125</v>
       </c>
       <c r="T36">
-        <v>60.530029296875</v>
+        <v>57.449951171875</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2855,61 +2852,61 @@
         <v>54</v>
       </c>
       <c r="B37">
-        <v>74.68994140625</v>
+        <v>75.330078125</v>
       </c>
       <c r="C37">
-        <v>68.18994140625</v>
+        <v>71.22021484375</v>
       </c>
       <c r="D37">
-        <v>63.300048828125</v>
+        <v>90.2001953125</v>
       </c>
       <c r="E37">
-        <v>79.02978515625</v>
+        <v>112.81005859375</v>
       </c>
       <c r="F37">
-        <v>74.3701171875</v>
+        <v>71.31005859375</v>
       </c>
       <c r="G37">
-        <v>102.85986328125</v>
+        <v>58.300048828125</v>
       </c>
       <c r="H37">
-        <v>116.56005859375</v>
+        <v>99.39013671875</v>
       </c>
       <c r="I37">
-        <v>92.2900390625</v>
+        <v>68.89013671875</v>
       </c>
       <c r="J37">
-        <v>89.7001953125</v>
+        <v>98.2001953125</v>
       </c>
       <c r="K37">
-        <v>64.669921875</v>
+        <v>54.469970703125</v>
       </c>
       <c r="L37">
-        <v>90.2099609375</v>
+        <v>82.259765625</v>
       </c>
       <c r="M37">
-        <v>52</v>
+        <v>44.77001953125</v>
       </c>
       <c r="N37">
-        <v>76.7099609375</v>
+        <v>110.41015625</v>
       </c>
       <c r="O37">
-        <v>58.5</v>
+        <v>68.89990234375</v>
       </c>
       <c r="P37">
-        <v>119.9599609375</v>
+        <v>108.7001953125</v>
       </c>
       <c r="Q37">
-        <v>67.7099609375</v>
+        <v>66.66015625</v>
       </c>
       <c r="R37">
-        <v>89.43994140625</v>
+        <v>53.9599609375</v>
       </c>
       <c r="S37">
-        <v>86.89990234375</v>
+        <v>99.2001953125</v>
       </c>
       <c r="T37">
-        <v>66.9501953125</v>
+        <v>60.530029296875</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2917,61 +2914,61 @@
         <v>55</v>
       </c>
       <c r="B38">
-        <v>96.39013671875</v>
+        <v>74.68994140625</v>
       </c>
       <c r="C38">
-        <v>96.18994140625</v>
+        <v>68.18994140625</v>
       </c>
       <c r="D38">
-        <v>87.0498046875</v>
+        <v>63.300048828125</v>
       </c>
       <c r="E38">
-        <v>81.06005859375</v>
+        <v>79.02978515625</v>
       </c>
       <c r="F38">
-        <v>94.259765625</v>
+        <v>74.3701171875</v>
       </c>
       <c r="G38">
-        <v>80.06005859375</v>
+        <v>102.85986328125</v>
       </c>
       <c r="H38">
-        <v>75.89013671875</v>
+        <v>116.56005859375</v>
       </c>
       <c r="I38">
-        <v>66</v>
+        <v>92.2900390625</v>
       </c>
       <c r="J38">
-        <v>24.6300048828125</v>
+        <v>89.7001953125</v>
       </c>
       <c r="K38">
-        <v>54.1201171875</v>
+        <v>64.669921875</v>
       </c>
       <c r="L38">
-        <v>60.9599609375</v>
+        <v>90.2099609375</v>
       </c>
       <c r="M38">
-        <v>66.66015625</v>
+        <v>52</v>
       </c>
       <c r="N38">
-        <v>96.7099609375</v>
+        <v>76.7099609375</v>
       </c>
       <c r="O38">
-        <v>87.85986328125</v>
+        <v>58.5</v>
       </c>
       <c r="P38">
-        <v>91.2001953125</v>
+        <v>119.9599609375</v>
       </c>
       <c r="Q38">
-        <v>65.14013671875</v>
+        <v>67.7099609375</v>
       </c>
       <c r="R38">
-        <v>89.14013671875</v>
+        <v>89.43994140625</v>
       </c>
       <c r="S38">
-        <v>76.7001953125</v>
+        <v>86.89990234375</v>
       </c>
       <c r="T38">
-        <v>44.080078125</v>
+        <v>66.9501953125</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2979,61 +2976,61 @@
         <v>56</v>
       </c>
       <c r="B39">
-        <v>70.18994140625</v>
+        <v>96.39013671875</v>
       </c>
       <c r="C39">
-        <v>87.89013671875</v>
+        <v>96.18994140625</v>
       </c>
       <c r="D39">
-        <v>77.919921875</v>
+        <v>87.0498046875</v>
       </c>
       <c r="E39">
+        <v>81.06005859375</v>
+      </c>
+      <c r="F39">
+        <v>94.259765625</v>
+      </c>
+      <c r="G39">
         <v>80.06005859375</v>
       </c>
-      <c r="F39">
-        <v>82.18017578125</v>
-      </c>
-      <c r="G39">
-        <v>110.31982421875</v>
-      </c>
       <c r="H39">
-        <v>96.35986328125</v>
+        <v>75.89013671875</v>
       </c>
       <c r="I39">
-        <v>120.740234375</v>
+        <v>66</v>
       </c>
       <c r="J39">
-        <v>76.47021484375</v>
+        <v>24.6300048828125</v>
       </c>
       <c r="K39">
-        <v>60.02001953125</v>
+        <v>54.1201171875</v>
       </c>
       <c r="L39">
-        <v>80.72021484375</v>
+        <v>60.9599609375</v>
       </c>
       <c r="M39">
-        <v>57.780029296875</v>
+        <v>66.66015625</v>
       </c>
       <c r="N39">
-        <v>99.8701171875</v>
+        <v>96.7099609375</v>
       </c>
       <c r="O39">
-        <v>69.2001953125</v>
+        <v>87.85986328125</v>
       </c>
       <c r="P39">
-        <v>87.66015625</v>
+        <v>91.2001953125</v>
       </c>
       <c r="Q39">
-        <v>69.97021484375</v>
+        <v>65.14013671875</v>
       </c>
       <c r="R39">
-        <v>63.050048828125</v>
+        <v>89.14013671875</v>
       </c>
       <c r="S39">
-        <v>112.56982421875</v>
+        <v>76.7001953125</v>
       </c>
       <c r="T39">
-        <v>64.60009765625</v>
+        <v>44.080078125</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3041,61 +3038,61 @@
         <v>57</v>
       </c>
       <c r="B40">
-        <v>73.77978515625</v>
+        <v>70.18994140625</v>
       </c>
       <c r="C40">
-        <v>73.83984375</v>
+        <v>87.89013671875</v>
       </c>
       <c r="D40">
-        <v>77.1201171875</v>
+        <v>77.919921875</v>
       </c>
       <c r="E40">
-        <v>88.31982421875</v>
+        <v>80.06005859375</v>
       </c>
       <c r="F40">
-        <v>76.419921875</v>
+        <v>82.18017578125</v>
       </c>
       <c r="G40">
-        <v>77.5</v>
+        <v>110.31982421875</v>
       </c>
       <c r="H40">
-        <v>98.7900390625</v>
+        <v>96.35986328125</v>
       </c>
       <c r="I40">
-        <v>76.33984375</v>
+        <v>120.740234375</v>
       </c>
       <c r="J40">
-        <v>81.7001953125</v>
+        <v>76.47021484375</v>
       </c>
       <c r="K40">
-        <v>68.669921875</v>
+        <v>60.02001953125</v>
       </c>
       <c r="L40">
-        <v>72.16015625</v>
+        <v>80.72021484375</v>
       </c>
       <c r="M40">
-        <v>73.66015625</v>
+        <v>57.780029296875</v>
       </c>
       <c r="N40">
-        <v>106.2099609375</v>
+        <v>99.8701171875</v>
       </c>
       <c r="O40">
-        <v>61.60009765625</v>
+        <v>69.2001953125</v>
       </c>
       <c r="P40">
-        <v>90.10009765625</v>
+        <v>87.66015625</v>
       </c>
       <c r="Q40">
-        <v>87.9599609375</v>
+        <v>69.97021484375</v>
       </c>
       <c r="R40">
-        <v>65.43994140625</v>
+        <v>63.050048828125</v>
       </c>
       <c r="S40">
-        <v>65.2998046875</v>
+        <v>112.56982421875</v>
       </c>
       <c r="T40">
-        <v>76.43017578125</v>
+        <v>64.60009765625</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3103,61 +3100,61 @@
         <v>58</v>
       </c>
       <c r="B41">
-        <v>84.68994140625</v>
+        <v>73.77978515625</v>
       </c>
       <c r="C41">
-        <v>95.2900390625</v>
+        <v>73.83984375</v>
       </c>
       <c r="D41">
-        <v>86.9501953125</v>
+        <v>77.1201171875</v>
       </c>
       <c r="E41">
-        <v>85.009765625</v>
+        <v>88.31982421875</v>
       </c>
       <c r="F41">
-        <v>73.919921875</v>
+        <v>76.419921875</v>
       </c>
       <c r="G41">
-        <v>88.759765625</v>
+        <v>77.5</v>
       </c>
       <c r="H41">
-        <v>96.10986328125</v>
+        <v>98.7900390625</v>
       </c>
       <c r="I41">
-        <v>103.93017578125</v>
+        <v>76.33984375</v>
       </c>
       <c r="J41">
-        <v>77.89990234375</v>
+        <v>81.7001953125</v>
       </c>
       <c r="K41">
-        <v>61.469970703125</v>
+        <v>68.669921875</v>
       </c>
       <c r="L41">
-        <v>93.2099609375</v>
+        <v>72.16015625</v>
       </c>
       <c r="M41">
-        <v>58.840087890625</v>
+        <v>73.66015625</v>
       </c>
       <c r="N41">
-        <v>128.0400390625</v>
+        <v>106.2099609375</v>
       </c>
       <c r="O41">
-        <v>74.2998046875</v>
+        <v>61.60009765625</v>
       </c>
       <c r="P41">
-        <v>101.5</v>
+        <v>90.10009765625</v>
       </c>
       <c r="Q41">
-        <v>79.97021484375</v>
+        <v>87.9599609375</v>
       </c>
       <c r="R41">
-        <v>53.2099609375</v>
+        <v>65.43994140625</v>
       </c>
       <c r="S41">
-        <v>98.10009765625</v>
+        <v>65.2998046875</v>
       </c>
       <c r="T41">
-        <v>56.6298828125</v>
+        <v>76.43017578125</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3165,61 +3162,61 @@
         <v>59</v>
       </c>
       <c r="B42">
-        <v>104.08984375</v>
+        <v>84.68994140625</v>
       </c>
       <c r="C42">
-        <v>75.68994140625</v>
+        <v>95.2900390625</v>
       </c>
       <c r="D42">
-        <v>87.02001953125</v>
+        <v>86.9501953125</v>
       </c>
       <c r="E42">
-        <v>99.66015625</v>
+        <v>85.009765625</v>
       </c>
       <c r="F42">
-        <v>82.419921875</v>
+        <v>73.919921875</v>
       </c>
       <c r="G42">
-        <v>103.259765625</v>
+        <v>88.759765625</v>
       </c>
       <c r="H42">
-        <v>94.33984375</v>
+        <v>96.10986328125</v>
       </c>
       <c r="I42">
-        <v>108.4501953125</v>
+        <v>103.93017578125</v>
       </c>
       <c r="J42">
-        <v>60.570068359375</v>
+        <v>77.89990234375</v>
       </c>
       <c r="K42">
-        <v>50.3701171875</v>
+        <v>61.469970703125</v>
       </c>
       <c r="L42">
-        <v>104.47021484375</v>
+        <v>93.2099609375</v>
       </c>
       <c r="M42">
-        <v>89.60986328125</v>
+        <v>58.840087890625</v>
       </c>
       <c r="N42">
-        <v>103.81005859375</v>
+        <v>128.0400390625</v>
       </c>
       <c r="O42">
-        <v>75.10009765625</v>
+        <v>74.2998046875</v>
       </c>
       <c r="P42">
-        <v>98.89990234375</v>
+        <v>101.5</v>
       </c>
       <c r="Q42">
-        <v>50.60009765625</v>
+        <v>79.97021484375</v>
       </c>
       <c r="R42">
-        <v>62.239990234375</v>
+        <v>53.2099609375</v>
       </c>
       <c r="S42">
-        <v>79.27001953125</v>
+        <v>98.10009765625</v>
       </c>
       <c r="T42">
-        <v>61.5</v>
+        <v>56.6298828125</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3227,61 +3224,61 @@
         <v>60</v>
       </c>
       <c r="B43">
-        <v>74.68994140625</v>
+        <v>104.08984375</v>
       </c>
       <c r="C43">
-        <v>86.490234375</v>
+        <v>75.68994140625</v>
       </c>
       <c r="D43">
-        <v>70.10009765625</v>
+        <v>87.02001953125</v>
       </c>
       <c r="E43">
-        <v>98.47998046875</v>
+        <v>99.66015625</v>
       </c>
       <c r="F43">
-        <v>86.22021484375</v>
+        <v>82.419921875</v>
       </c>
       <c r="G43">
-        <v>98.16015625</v>
+        <v>103.259765625</v>
       </c>
       <c r="H43">
-        <v>96.68994140625</v>
+        <v>94.33984375</v>
       </c>
       <c r="I43">
-        <v>106.64990234375</v>
+        <v>108.4501953125</v>
       </c>
       <c r="J43">
-        <v>74.25</v>
+        <v>60.570068359375</v>
       </c>
       <c r="K43">
-        <v>73.56982421875</v>
+        <v>50.3701171875</v>
       </c>
       <c r="L43">
-        <v>120.27001953125</v>
+        <v>104.47021484375</v>
       </c>
       <c r="M43">
-        <v>58.4599609375</v>
+        <v>89.60986328125</v>
       </c>
       <c r="N43">
-        <v>111.2099609375</v>
+        <v>103.81005859375</v>
       </c>
       <c r="O43">
-        <v>65</v>
+        <v>75.10009765625</v>
       </c>
       <c r="P43">
-        <v>91.39990234375</v>
+        <v>98.89990234375</v>
       </c>
       <c r="Q43">
-        <v>74.3701171875</v>
+        <v>50.60009765625</v>
       </c>
       <c r="R43">
-        <v>56.739990234375</v>
+        <v>62.239990234375</v>
       </c>
       <c r="S43">
-        <v>81.10009765625</v>
+        <v>79.27001953125</v>
       </c>
       <c r="T43">
-        <v>62.449951171875</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3289,61 +3286,61 @@
         <v>61</v>
       </c>
       <c r="B44">
-        <v>81.9501953125</v>
+        <v>74.68994140625</v>
       </c>
       <c r="C44">
-        <v>74.490234375</v>
+        <v>86.490234375</v>
       </c>
       <c r="D44">
-        <v>56</v>
+        <v>70.10009765625</v>
       </c>
       <c r="E44">
-        <v>76.02978515625</v>
+        <v>98.47998046875</v>
       </c>
       <c r="F44">
-        <v>53.52001953125</v>
+        <v>86.22021484375</v>
       </c>
       <c r="G44">
-        <v>68.4501953125</v>
+        <v>98.16015625</v>
       </c>
       <c r="H44">
-        <v>85.83984375</v>
+        <v>96.68994140625</v>
       </c>
       <c r="I44">
-        <v>94.7998046875</v>
+        <v>106.64990234375</v>
       </c>
       <c r="J44">
-        <v>71.56982421875</v>
+        <v>74.25</v>
       </c>
       <c r="K44">
-        <v>72.52001953125</v>
+        <v>73.56982421875</v>
       </c>
       <c r="L44">
-        <v>92.990234375</v>
+        <v>120.27001953125</v>
       </c>
       <c r="M44">
-        <v>68.66015625</v>
+        <v>58.4599609375</v>
       </c>
       <c r="N44">
-        <v>108.509765625</v>
+        <v>111.2099609375</v>
       </c>
       <c r="O44">
-        <v>76.5</v>
+        <v>65</v>
       </c>
       <c r="P44">
-        <v>99.2998046875</v>
+        <v>91.39990234375</v>
       </c>
       <c r="Q44">
-        <v>81.419921875</v>
+        <v>74.3701171875</v>
       </c>
       <c r="R44">
-        <v>72.31005859375</v>
+        <v>56.739990234375</v>
       </c>
       <c r="S44">
-        <v>109</v>
+        <v>81.10009765625</v>
       </c>
       <c r="T44">
-        <v>45.25</v>
+        <v>62.449951171875</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3351,61 +3348,61 @@
         <v>62</v>
       </c>
       <c r="B45">
-        <v>83.990234375</v>
+        <v>81.9501953125</v>
       </c>
       <c r="C45">
-        <v>92.81982421875</v>
+        <v>74.490234375</v>
       </c>
       <c r="D45">
-        <v>68.52001953125</v>
+        <v>56</v>
       </c>
       <c r="E45">
-        <v>77.27978515625</v>
+        <v>76.02978515625</v>
       </c>
       <c r="F45">
-        <v>57.919921875</v>
+        <v>53.52001953125</v>
       </c>
       <c r="G45">
-        <v>84.0498046875</v>
+        <v>68.4501953125</v>
       </c>
       <c r="H45">
-        <v>85.81005859375</v>
+        <v>85.83984375</v>
       </c>
       <c r="I45">
-        <v>89.39990234375</v>
+        <v>94.7998046875</v>
       </c>
       <c r="J45">
-        <v>65.6298828125</v>
+        <v>71.56982421875</v>
       </c>
       <c r="K45">
-        <v>59.570068359375</v>
+        <v>72.52001953125</v>
       </c>
       <c r="L45">
-        <v>48.4599609375</v>
+        <v>92.990234375</v>
       </c>
       <c r="M45">
-        <v>36.56005859375</v>
+        <v>68.66015625</v>
       </c>
       <c r="N45">
-        <v>91.91015625</v>
+        <v>108.509765625</v>
       </c>
       <c r="O45">
-        <v>36.199951171875</v>
+        <v>76.5</v>
       </c>
       <c r="P45">
-        <v>88.18994140625</v>
+        <v>99.2998046875</v>
       </c>
       <c r="Q45">
-        <v>66.35986328125</v>
+        <v>81.419921875</v>
       </c>
       <c r="R45">
-        <v>73.58984375</v>
+        <v>72.31005859375</v>
       </c>
       <c r="S45">
-        <v>79.8798828125</v>
+        <v>109</v>
       </c>
       <c r="T45">
-        <v>36.179931640625</v>
+        <v>45.25</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3413,61 +3410,61 @@
         <v>63</v>
       </c>
       <c r="B46">
-        <v>68.47998046875</v>
+        <v>83.990234375</v>
       </c>
       <c r="C46">
-        <v>81.1201171875</v>
+        <v>92.81982421875</v>
       </c>
       <c r="D46">
-        <v>53.840087890625</v>
+        <v>68.52001953125</v>
       </c>
       <c r="E46">
-        <v>60.929931640625</v>
+        <v>77.27978515625</v>
       </c>
       <c r="F46">
-        <v>72.330078125</v>
+        <v>57.919921875</v>
       </c>
       <c r="G46">
-        <v>95.31982421875</v>
+        <v>84.0498046875</v>
       </c>
       <c r="H46">
-        <v>86.08984375</v>
+        <v>85.81005859375</v>
       </c>
       <c r="I46">
-        <v>46.89990234375</v>
+        <v>89.39990234375</v>
       </c>
       <c r="J46">
-        <v>71.22021484375</v>
+        <v>65.6298828125</v>
       </c>
       <c r="K46">
-        <v>20.8499755859375</v>
+        <v>59.570068359375</v>
       </c>
       <c r="L46">
-        <v>75.68017578125</v>
+        <v>48.4599609375</v>
       </c>
       <c r="M46">
-        <v>34.760009765625</v>
+        <v>36.56005859375</v>
       </c>
       <c r="N46">
-        <v>90.10986328125</v>
+        <v>91.91015625</v>
       </c>
       <c r="O46">
-        <v>38.39990234375</v>
+        <v>36.199951171875</v>
       </c>
       <c r="P46">
-        <v>75.9599609375</v>
+        <v>88.18994140625</v>
       </c>
       <c r="Q46">
-        <v>57.1298828125</v>
+        <v>66.35986328125</v>
       </c>
       <c r="R46">
-        <v>38.22998046875</v>
+        <v>73.58984375</v>
       </c>
       <c r="S46">
-        <v>80.6201171875</v>
+        <v>79.8798828125</v>
       </c>
       <c r="T46">
-        <v>66.35986328125</v>
+        <v>36.179931640625</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3475,61 +3472,61 @@
         <v>64</v>
       </c>
       <c r="B47">
-        <v>68.39990234375</v>
+        <v>68.47998046875</v>
       </c>
       <c r="C47">
-        <v>72.89013671875</v>
+        <v>81.1201171875</v>
       </c>
       <c r="D47">
-        <v>38.219970703125</v>
+        <v>53.840087890625</v>
       </c>
       <c r="E47">
-        <v>77.06005859375</v>
+        <v>60.929931640625</v>
       </c>
       <c r="F47">
-        <v>69.919921875</v>
+        <v>72.330078125</v>
       </c>
       <c r="G47">
-        <v>66.759765625</v>
+        <v>95.31982421875</v>
       </c>
       <c r="H47">
-        <v>99.2900390625</v>
+        <v>86.08984375</v>
       </c>
       <c r="I47">
-        <v>136.9404296875</v>
+        <v>46.89990234375</v>
       </c>
       <c r="J47">
-        <v>50.320068359375</v>
+        <v>71.22021484375</v>
       </c>
       <c r="K47">
-        <v>63.919921875</v>
+        <v>20.8499755859375</v>
       </c>
       <c r="L47">
-        <v>150.3701171875</v>
+        <v>75.68017578125</v>
       </c>
       <c r="M47">
-        <v>57.699951171875</v>
+        <v>34.760009765625</v>
       </c>
       <c r="N47">
-        <v>121.0400390625</v>
+        <v>90.10986328125</v>
       </c>
       <c r="O47">
-        <v>92.60009765625</v>
+        <v>38.39990234375</v>
       </c>
       <c r="P47">
-        <v>102.89990234375</v>
+        <v>75.9599609375</v>
       </c>
       <c r="Q47">
-        <v>70.10986328125</v>
+        <v>57.1298828125</v>
       </c>
       <c r="R47">
-        <v>36.7099609375</v>
+        <v>38.22998046875</v>
       </c>
       <c r="S47">
-        <v>88.919921875</v>
+        <v>80.6201171875</v>
       </c>
       <c r="T47">
-        <v>75.64990234375</v>
+        <v>66.35986328125</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3537,61 +3534,61 @@
         <v>65</v>
       </c>
       <c r="B48">
-        <v>61.14990234375</v>
+        <v>68.39990234375</v>
       </c>
       <c r="C48">
-        <v>104.169921875</v>
+        <v>72.89013671875</v>
       </c>
       <c r="D48">
-        <v>40.77001953125</v>
+        <v>38.219970703125</v>
       </c>
       <c r="E48">
-        <v>51.6298828125</v>
+        <v>77.06005859375</v>
       </c>
       <c r="F48">
-        <v>84.68017578125</v>
+        <v>69.919921875</v>
       </c>
       <c r="G48">
-        <v>69.60986328125</v>
+        <v>66.759765625</v>
       </c>
       <c r="H48">
-        <v>92.35986328125</v>
+        <v>99.2900390625</v>
       </c>
       <c r="I48">
-        <v>81.14990234375</v>
+        <v>136.9404296875</v>
       </c>
       <c r="J48">
-        <v>51.669921875</v>
+        <v>50.320068359375</v>
       </c>
       <c r="K48">
-        <v>42.110107421875</v>
+        <v>63.919921875</v>
       </c>
       <c r="L48">
-        <v>54.7099609375</v>
+        <v>150.3701171875</v>
       </c>
       <c r="M48">
-        <v>33.3701171875</v>
+        <v>57.699951171875</v>
       </c>
       <c r="N48">
-        <v>90.2099609375</v>
+        <v>121.0400390625</v>
       </c>
       <c r="O48">
-        <v>57.25</v>
+        <v>92.60009765625</v>
       </c>
       <c r="P48">
-        <v>89.91015625</v>
+        <v>102.89990234375</v>
       </c>
       <c r="Q48">
-        <v>57.27001953125</v>
+        <v>70.10986328125</v>
       </c>
       <c r="R48">
-        <v>73.89013671875</v>
+        <v>36.7099609375</v>
       </c>
       <c r="S48">
-        <v>50.25</v>
+        <v>88.919921875</v>
       </c>
       <c r="T48">
-        <v>46.030029296875</v>
+        <v>75.64990234375</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3599,61 +3596,61 @@
         <v>66</v>
       </c>
       <c r="B49">
-        <v>93.85009765625</v>
+        <v>61.14990234375</v>
       </c>
       <c r="C49">
-        <v>67.39013671875</v>
+        <v>104.169921875</v>
       </c>
       <c r="D49">
-        <v>85.52001953125</v>
+        <v>40.77001953125</v>
       </c>
       <c r="E49">
-        <v>91.7001953125</v>
+        <v>51.6298828125</v>
       </c>
       <c r="F49">
-        <v>86.47998046875</v>
+        <v>84.68017578125</v>
       </c>
       <c r="G49">
-        <v>88.06005859375</v>
+        <v>69.60986328125</v>
       </c>
       <c r="H49">
-        <v>97.58984375</v>
+        <v>92.35986328125</v>
       </c>
       <c r="I49">
-        <v>100.68994140625</v>
+        <v>81.14990234375</v>
       </c>
       <c r="J49">
-        <v>79.06982421875</v>
+        <v>51.669921875</v>
       </c>
       <c r="K49">
-        <v>88.169921875</v>
+        <v>42.110107421875</v>
       </c>
       <c r="L49">
-        <v>105.10986328125</v>
+        <v>54.7099609375</v>
       </c>
       <c r="M49">
-        <v>94.259765625</v>
+        <v>33.3701171875</v>
       </c>
       <c r="N49">
-        <v>126.509765625</v>
+        <v>90.2099609375</v>
       </c>
       <c r="O49">
-        <v>72.10009765625</v>
+        <v>57.25</v>
       </c>
       <c r="P49">
-        <v>82</v>
+        <v>89.91015625</v>
       </c>
       <c r="Q49">
-        <v>62.39990234375</v>
+        <v>57.27001953125</v>
       </c>
       <c r="R49">
-        <v>53.31005859375</v>
+        <v>73.89013671875</v>
       </c>
       <c r="S49">
-        <v>89.41015625</v>
+        <v>50.25</v>
       </c>
       <c r="T49">
-        <v>76.89990234375</v>
+        <v>46.030029296875</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3661,61 +3658,61 @@
         <v>67</v>
       </c>
       <c r="B50">
-        <v>60.550048828125</v>
+        <v>93.85009765625</v>
       </c>
       <c r="C50">
-        <v>96.990234375</v>
+        <v>67.39013671875</v>
       </c>
       <c r="D50">
-        <v>71.39990234375</v>
+        <v>85.52001953125</v>
       </c>
       <c r="E50">
-        <v>90.6298828125</v>
+        <v>91.7001953125</v>
       </c>
       <c r="F50">
-        <v>85.31982421875</v>
+        <v>86.47998046875</v>
       </c>
       <c r="G50">
-        <v>100.85986328125</v>
+        <v>88.06005859375</v>
       </c>
       <c r="H50">
-        <v>96.39013671875</v>
+        <v>97.58984375</v>
       </c>
       <c r="I50">
-        <v>121.93994140625</v>
+        <v>100.68994140625</v>
       </c>
       <c r="J50">
-        <v>73.75</v>
+        <v>79.06982421875</v>
       </c>
       <c r="K50">
-        <v>76.97021484375</v>
+        <v>88.169921875</v>
       </c>
       <c r="L50">
-        <v>124.47021484375</v>
+        <v>105.10986328125</v>
       </c>
       <c r="M50">
-        <v>62.760009765625</v>
+        <v>94.259765625</v>
       </c>
       <c r="N50">
-        <v>93.509765625</v>
+        <v>126.509765625</v>
       </c>
       <c r="O50">
-        <v>81.89990234375</v>
+        <v>72.10009765625</v>
       </c>
       <c r="P50">
-        <v>100.10009765625</v>
+        <v>82</v>
       </c>
       <c r="Q50">
-        <v>79.10009765625</v>
+        <v>62.39990234375</v>
       </c>
       <c r="R50">
-        <v>48.81005859375</v>
+        <v>53.31005859375</v>
       </c>
       <c r="S50">
-        <v>74.39990234375</v>
+        <v>89.41015625</v>
       </c>
       <c r="T50">
-        <v>73.4501953125</v>
+        <v>76.89990234375</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3723,61 +3720,61 @@
         <v>68</v>
       </c>
       <c r="B51">
-        <v>59.300048828125</v>
+        <v>60.550048828125</v>
       </c>
       <c r="C51">
-        <v>72.580078125</v>
+        <v>96.990234375</v>
       </c>
       <c r="D51">
-        <v>60.699951171875</v>
+        <v>71.39990234375</v>
       </c>
       <c r="E51">
-        <v>91.6298828125</v>
+        <v>90.6298828125</v>
       </c>
       <c r="F51">
-        <v>72.77978515625</v>
+        <v>85.31982421875</v>
       </c>
       <c r="G51">
-        <v>98.22998046875</v>
+        <v>100.85986328125</v>
       </c>
       <c r="H51">
-        <v>87.18994140625</v>
+        <v>96.39013671875</v>
       </c>
       <c r="I51">
-        <v>110.68994140625</v>
+        <v>121.93994140625</v>
       </c>
       <c r="J51">
-        <v>85.39990234375</v>
+        <v>73.75</v>
       </c>
       <c r="K51">
-        <v>45.570068359375</v>
+        <v>76.97021484375</v>
       </c>
       <c r="L51">
-        <v>101.2099609375</v>
+        <v>124.47021484375</v>
       </c>
       <c r="M51">
-        <v>89.60986328125</v>
+        <v>62.760009765625</v>
       </c>
       <c r="N51">
-        <v>136.5498046875</v>
+        <v>93.509765625</v>
       </c>
       <c r="O51">
-        <v>65</v>
+        <v>81.89990234375</v>
       </c>
       <c r="P51">
-        <v>104.7998046875</v>
+        <v>100.10009765625</v>
       </c>
       <c r="Q51">
-        <v>97.35009765625</v>
+        <v>79.10009765625</v>
       </c>
       <c r="R51">
-        <v>58.219970703125</v>
+        <v>48.81005859375</v>
       </c>
       <c r="S51">
-        <v>71.06982421875</v>
+        <v>74.39990234375</v>
       </c>
       <c r="T51">
-        <v>55.10009765625</v>
+        <v>73.4501953125</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3785,61 +3782,61 @@
         <v>69</v>
       </c>
       <c r="B52">
-        <v>69.4501953125</v>
+        <v>59.300048828125</v>
       </c>
       <c r="C52">
-        <v>87.990234375</v>
+        <v>72.580078125</v>
       </c>
       <c r="D52">
-        <v>72.9501953125</v>
+        <v>60.699951171875</v>
       </c>
       <c r="E52">
-        <v>94.56005859375</v>
+        <v>91.6298828125</v>
       </c>
       <c r="F52">
-        <v>91.02001953125</v>
+        <v>72.77978515625</v>
       </c>
       <c r="G52">
-        <v>106.14990234375</v>
+        <v>98.22998046875</v>
       </c>
       <c r="H52">
-        <v>113.89013671875</v>
+        <v>87.18994140625</v>
       </c>
       <c r="I52">
-        <v>135.490234375</v>
+        <v>110.68994140625</v>
       </c>
       <c r="J52">
-        <v>56.8701171875</v>
+        <v>85.39990234375</v>
       </c>
       <c r="K52">
-        <v>54.070068359375</v>
+        <v>45.570068359375</v>
       </c>
       <c r="L52">
-        <v>115.77001953125</v>
+        <v>101.2099609375</v>
       </c>
       <c r="M52">
-        <v>63.56005859375</v>
+        <v>89.60986328125</v>
       </c>
       <c r="N52">
-        <v>133.4404296875</v>
+        <v>136.5498046875</v>
       </c>
       <c r="O52">
-        <v>63.5</v>
+        <v>65</v>
       </c>
       <c r="P52">
-        <v>89.89990234375</v>
+        <v>104.7998046875</v>
       </c>
       <c r="Q52">
-        <v>61.260009765625</v>
+        <v>97.35009765625</v>
       </c>
       <c r="R52">
-        <v>45.260009765625</v>
+        <v>58.219970703125</v>
       </c>
       <c r="S52">
-        <v>66.47021484375</v>
+        <v>71.06982421875</v>
       </c>
       <c r="T52">
-        <v>51.300048828125</v>
+        <v>55.10009765625</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -3847,61 +3844,61 @@
         <v>70</v>
       </c>
       <c r="B53">
-        <v>65.39990234375</v>
+        <v>69.4501953125</v>
       </c>
       <c r="C53">
-        <v>59.679931640625</v>
+        <v>87.990234375</v>
       </c>
       <c r="D53">
-        <v>61.699951171875</v>
+        <v>72.9501953125</v>
       </c>
       <c r="E53">
-        <v>90.14990234375</v>
+        <v>94.56005859375</v>
       </c>
       <c r="F53">
-        <v>58.429931640625</v>
+        <v>91.02001953125</v>
       </c>
       <c r="G53">
-        <v>73.259765625</v>
+        <v>106.14990234375</v>
       </c>
       <c r="H53">
-        <v>86.240234375</v>
+        <v>113.89013671875</v>
       </c>
       <c r="I53">
-        <v>73.2900390625</v>
+        <v>135.490234375</v>
       </c>
       <c r="J53">
-        <v>66.72998046875</v>
+        <v>56.8701171875</v>
       </c>
       <c r="K53">
-        <v>52.25</v>
+        <v>54.070068359375</v>
       </c>
       <c r="L53">
-        <v>64.7001953125</v>
+        <v>115.77001953125</v>
       </c>
       <c r="M53">
-        <v>51.860107421875</v>
+        <v>63.56005859375</v>
       </c>
       <c r="N53">
-        <v>93.14990234375</v>
+        <v>133.4404296875</v>
       </c>
       <c r="O53">
-        <v>50.239990234375</v>
+        <v>63.5</v>
       </c>
       <c r="P53">
-        <v>67.81005859375</v>
+        <v>89.89990234375</v>
       </c>
       <c r="Q53">
-        <v>46.889892578125</v>
+        <v>61.260009765625</v>
       </c>
       <c r="R53">
-        <v>73.93994140625</v>
+        <v>45.260009765625</v>
       </c>
       <c r="S53">
-        <v>109.97021484375</v>
+        <v>66.47021484375</v>
       </c>
       <c r="T53">
-        <v>62.030029296875</v>
+        <v>51.300048828125</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -3909,61 +3906,61 @@
         <v>71</v>
       </c>
       <c r="B54">
-        <v>66.60009765625</v>
+        <v>65.39990234375</v>
       </c>
       <c r="C54">
-        <v>73.31982421875</v>
+        <v>59.679931640625</v>
       </c>
       <c r="D54">
-        <v>99.5498046875</v>
+        <v>61.699951171875</v>
       </c>
       <c r="E54">
-        <v>94.8701171875</v>
+        <v>90.14990234375</v>
       </c>
       <c r="F54">
-        <v>83.02978515625</v>
+        <v>58.429931640625</v>
       </c>
       <c r="G54">
-        <v>86.06005859375</v>
+        <v>73.259765625</v>
       </c>
       <c r="H54">
-        <v>105.7099609375</v>
+        <v>86.240234375</v>
       </c>
       <c r="I54">
-        <v>97.39013671875</v>
+        <v>73.2900390625</v>
       </c>
       <c r="J54">
-        <v>75.5498046875</v>
+        <v>66.72998046875</v>
       </c>
       <c r="K54">
-        <v>83.8701171875</v>
+        <v>52.25</v>
       </c>
       <c r="L54">
-        <v>96.919921875</v>
+        <v>64.7001953125</v>
       </c>
       <c r="M54">
-        <v>50.10009765625</v>
+        <v>51.860107421875</v>
       </c>
       <c r="N54">
-        <v>79.41015625</v>
+        <v>93.14990234375</v>
       </c>
       <c r="O54">
-        <v>64.4501953125</v>
+        <v>50.239990234375</v>
       </c>
       <c r="P54">
-        <v>97.2001953125</v>
+        <v>67.81005859375</v>
       </c>
       <c r="Q54">
-        <v>76.91015625</v>
+        <v>46.889892578125</v>
       </c>
       <c r="R54">
-        <v>50.64990234375</v>
+        <v>73.93994140625</v>
       </c>
       <c r="S54">
-        <v>79.52001953125</v>
+        <v>109.97021484375</v>
       </c>
       <c r="T54">
-        <v>48.1298828125</v>
+        <v>62.030029296875</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -3971,61 +3968,61 @@
         <v>72</v>
       </c>
       <c r="B55">
-        <v>80.25</v>
+        <v>66.60009765625</v>
       </c>
       <c r="C55">
-        <v>80.58984375</v>
+        <v>73.31982421875</v>
       </c>
       <c r="D55">
-        <v>58.6201171875</v>
+        <v>99.5498046875</v>
       </c>
       <c r="E55">
-        <v>96.52978515625</v>
+        <v>94.8701171875</v>
       </c>
       <c r="F55">
-        <v>84.97998046875</v>
+        <v>83.02978515625</v>
       </c>
       <c r="G55">
-        <v>98.7998046875</v>
+        <v>86.06005859375</v>
       </c>
       <c r="H55">
-        <v>83.7900390625</v>
+        <v>105.7099609375</v>
       </c>
       <c r="I55">
-        <v>112.240234375</v>
+        <v>97.39013671875</v>
       </c>
       <c r="J55">
-        <v>67.7001953125</v>
+        <v>75.5498046875</v>
       </c>
       <c r="K55">
-        <v>65.8701171875</v>
+        <v>83.8701171875</v>
       </c>
       <c r="L55">
-        <v>106.81005859375</v>
+        <v>96.919921875</v>
       </c>
       <c r="M55">
-        <v>85.259765625</v>
+        <v>50.10009765625</v>
       </c>
       <c r="N55">
-        <v>106.97021484375</v>
+        <v>79.41015625</v>
       </c>
       <c r="O55">
-        <v>76.10009765625</v>
+        <v>64.4501953125</v>
       </c>
       <c r="P55">
-        <v>89.89990234375</v>
+        <v>97.2001953125</v>
       </c>
       <c r="Q55">
-        <v>68.91015625</v>
+        <v>76.91015625</v>
       </c>
       <c r="R55">
-        <v>68.4501953125</v>
+        <v>50.64990234375</v>
       </c>
       <c r="S55">
-        <v>97.10009765625</v>
+        <v>79.52001953125</v>
       </c>
       <c r="T55">
-        <v>54.5</v>
+        <v>48.1298828125</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4033,61 +4030,61 @@
         <v>73</v>
       </c>
       <c r="B56">
-        <v>74.08984375</v>
+        <v>80.25</v>
       </c>
       <c r="C56">
-        <v>73.18994140625</v>
+        <v>80.58984375</v>
       </c>
       <c r="D56">
-        <v>68.419921875</v>
+        <v>58.6201171875</v>
       </c>
       <c r="E56">
-        <v>109.06005859375</v>
+        <v>96.52978515625</v>
       </c>
       <c r="F56">
-        <v>87.27001953125</v>
+        <v>84.97998046875</v>
       </c>
       <c r="G56">
-        <v>106.06005859375</v>
+        <v>98.7998046875</v>
       </c>
       <c r="H56">
-        <v>127.759765625</v>
+        <v>83.7900390625</v>
       </c>
       <c r="I56">
-        <v>139.400390625</v>
+        <v>112.240234375</v>
       </c>
       <c r="J56">
-        <v>78.31982421875</v>
+        <v>67.7001953125</v>
       </c>
       <c r="K56">
-        <v>54.27001953125</v>
+        <v>65.8701171875</v>
       </c>
       <c r="L56">
-        <v>84.740234375</v>
+        <v>106.81005859375</v>
       </c>
       <c r="M56">
-        <v>59.47998046875</v>
+        <v>85.259765625</v>
       </c>
       <c r="N56">
-        <v>120.8701171875</v>
+        <v>106.97021484375</v>
       </c>
       <c r="O56">
-        <v>75.7998046875</v>
+        <v>76.10009765625</v>
       </c>
       <c r="P56">
-        <v>89.7998046875</v>
+        <v>89.89990234375</v>
       </c>
       <c r="Q56">
-        <v>70.97021484375</v>
+        <v>68.91015625</v>
       </c>
       <c r="R56">
-        <v>56.31005859375</v>
+        <v>68.4501953125</v>
       </c>
       <c r="S56">
-        <v>124.2998046875</v>
+        <v>97.10009765625</v>
       </c>
       <c r="T56">
-        <v>68.25</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4095,61 +4092,61 @@
         <v>74</v>
       </c>
       <c r="B57">
-        <v>64.47998046875</v>
+        <v>74.08984375</v>
       </c>
       <c r="C57">
-        <v>82.27978515625</v>
+        <v>73.18994140625</v>
       </c>
       <c r="D57">
-        <v>96.7998046875</v>
+        <v>68.419921875</v>
       </c>
       <c r="E57">
-        <v>115.77001953125</v>
+        <v>109.06005859375</v>
       </c>
       <c r="F57">
-        <v>67.52978515625</v>
+        <v>87.27001953125</v>
       </c>
       <c r="G57">
-        <v>84.39990234375</v>
+        <v>106.06005859375</v>
       </c>
       <c r="H57">
-        <v>116.2900390625</v>
+        <v>127.759765625</v>
       </c>
       <c r="I57">
-        <v>98.4501953125</v>
+        <v>139.400390625</v>
       </c>
       <c r="J57">
-        <v>97</v>
+        <v>78.31982421875</v>
       </c>
       <c r="K57">
-        <v>54.469970703125</v>
+        <v>54.27001953125</v>
       </c>
       <c r="L57">
-        <v>100.7099609375</v>
+        <v>84.740234375</v>
       </c>
       <c r="M57">
-        <v>44.77001953125</v>
+        <v>59.47998046875</v>
       </c>
       <c r="N57">
-        <v>123.509765625</v>
+        <v>120.8701171875</v>
       </c>
       <c r="O57">
-        <v>68</v>
+        <v>75.7998046875</v>
       </c>
       <c r="P57">
-        <v>110.2998046875</v>
+        <v>89.7998046875</v>
       </c>
       <c r="Q57">
-        <v>66.66015625</v>
+        <v>70.97021484375</v>
       </c>
       <c r="R57">
-        <v>39.159912109375</v>
+        <v>56.31005859375</v>
       </c>
       <c r="S57">
-        <v>99.2001953125</v>
+        <v>124.2998046875</v>
       </c>
       <c r="T57">
-        <v>63.6298828125</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4157,61 +4154,61 @@
         <v>75</v>
       </c>
       <c r="B58">
-        <v>67.68994140625</v>
+        <v>64.47998046875</v>
       </c>
       <c r="C58">
-        <v>85.990234375</v>
+        <v>82.27978515625</v>
       </c>
       <c r="D58">
-        <v>76.919921875</v>
+        <v>96.7998046875</v>
       </c>
       <c r="E58">
-        <v>79.85986328125</v>
+        <v>115.77001953125</v>
       </c>
       <c r="F58">
-        <v>71.31982421875</v>
+        <v>67.52978515625</v>
       </c>
       <c r="G58">
-        <v>119.85009765625</v>
+        <v>84.39990234375</v>
       </c>
       <c r="H58">
-        <v>98.7099609375</v>
+        <v>116.2900390625</v>
       </c>
       <c r="I58">
-        <v>109.14990234375</v>
+        <v>98.4501953125</v>
       </c>
       <c r="J58">
-        <v>83.89990234375</v>
+        <v>97</v>
       </c>
       <c r="K58">
-        <v>73.669921875</v>
+        <v>54.469970703125</v>
       </c>
       <c r="L58">
-        <v>110.509765625</v>
+        <v>100.7099609375</v>
       </c>
       <c r="M58">
-        <v>69.259765625</v>
+        <v>44.77001953125</v>
       </c>
       <c r="N58">
-        <v>111.91015625</v>
+        <v>123.509765625</v>
       </c>
       <c r="O58">
-        <v>74.2001953125</v>
+        <v>68</v>
       </c>
       <c r="P58">
-        <v>101.7998046875</v>
+        <v>110.2998046875</v>
       </c>
       <c r="Q58">
-        <v>74.009765625</v>
+        <v>66.66015625</v>
       </c>
       <c r="R58">
-        <v>47.510009765625</v>
+        <v>39.159912109375</v>
       </c>
       <c r="S58">
-        <v>98</v>
+        <v>99.2001953125</v>
       </c>
       <c r="T58">
-        <v>61.64990234375</v>
+        <v>63.6298828125</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4219,61 +4216,61 @@
         <v>76</v>
       </c>
       <c r="B59">
-        <v>69.39990234375</v>
+        <v>67.68994140625</v>
       </c>
       <c r="C59">
-        <v>83.0400390625</v>
+        <v>85.990234375</v>
       </c>
       <c r="D59">
-        <v>83.60009765625</v>
+        <v>76.919921875</v>
       </c>
       <c r="E59">
-        <v>61.830078125</v>
+        <v>79.85986328125</v>
       </c>
       <c r="F59">
-        <v>62.409912109375</v>
+        <v>71.31982421875</v>
       </c>
       <c r="G59">
-        <v>85.16015625</v>
+        <v>119.85009765625</v>
       </c>
       <c r="H59">
-        <v>100.16015625</v>
+        <v>98.7099609375</v>
       </c>
       <c r="I59">
-        <v>117.5498046875</v>
+        <v>109.14990234375</v>
       </c>
       <c r="J59">
-        <v>69.47998046875</v>
+        <v>83.89990234375</v>
       </c>
       <c r="K59">
-        <v>47.8701171875</v>
+        <v>73.669921875</v>
       </c>
       <c r="L59">
-        <v>71.7099609375</v>
+        <v>110.509765625</v>
       </c>
       <c r="M59">
-        <v>93.509765625</v>
+        <v>69.259765625</v>
       </c>
       <c r="N59">
-        <v>113.669921875</v>
+        <v>111.91015625</v>
       </c>
       <c r="O59">
-        <v>75.7998046875</v>
+        <v>74.2001953125</v>
       </c>
       <c r="P59">
-        <v>103.16015625</v>
+        <v>101.7998046875</v>
       </c>
       <c r="Q59">
-        <v>69.2099609375</v>
+        <v>74.009765625</v>
       </c>
       <c r="R59">
-        <v>51.97998046875</v>
+        <v>47.510009765625</v>
       </c>
       <c r="S59">
-        <v>102.06982421875</v>
+        <v>98</v>
       </c>
       <c r="T59">
-        <v>59.1298828125</v>
+        <v>61.64990234375</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4281,123 +4278,185 @@
         <v>77</v>
       </c>
       <c r="B60">
-        <v>72.2900390625</v>
+        <v>69.39990234375</v>
       </c>
       <c r="C60">
-        <v>56.820068359375</v>
+        <v>83.0400390625</v>
       </c>
       <c r="D60">
-        <v>91.990234375</v>
+        <v>83.60009765625</v>
       </c>
       <c r="E60">
-        <v>62.219970703125</v>
+        <v>61.830078125</v>
       </c>
       <c r="F60">
-        <v>72.02001953125</v>
+        <v>62.409912109375</v>
       </c>
       <c r="G60">
-        <v>48.840087890625</v>
+        <v>85.16015625</v>
       </c>
       <c r="H60">
-        <v>114.66015625</v>
+        <v>100.16015625</v>
       </c>
       <c r="I60">
-        <v>91.35009765625</v>
+        <v>117.5498046875</v>
       </c>
       <c r="J60">
-        <v>114.330078125</v>
+        <v>69.47998046875</v>
       </c>
       <c r="K60">
-        <v>78.77001953125</v>
+        <v>47.8701171875</v>
       </c>
       <c r="L60">
-        <v>81.33984375</v>
+        <v>71.7099609375</v>
       </c>
       <c r="M60">
-        <v>59.909912109375</v>
+        <v>93.509765625</v>
       </c>
       <c r="N60">
-        <v>70.68994140625</v>
+        <v>113.669921875</v>
       </c>
       <c r="O60">
-        <v>55.429931640625</v>
+        <v>75.7998046875</v>
       </c>
       <c r="P60">
-        <v>75.27001953125</v>
+        <v>103.16015625</v>
       </c>
       <c r="Q60">
-        <v>78.31982421875</v>
+        <v>69.2099609375</v>
       </c>
       <c r="R60">
-        <v>59.659912109375</v>
+        <v>51.97998046875</v>
       </c>
       <c r="S60">
-        <v>70.52001953125</v>
+        <v>102.06982421875</v>
       </c>
       <c r="T60">
-        <v>61.169921875</v>
+        <v>59.1298828125</v>
       </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61">
+        <v>72.2900390625</v>
+      </c>
+      <c r="C61">
+        <v>56.820068359375</v>
+      </c>
+      <c r="D61">
+        <v>91.990234375</v>
+      </c>
+      <c r="E61">
+        <v>62.219970703125</v>
+      </c>
+      <c r="F61">
+        <v>72.02001953125</v>
+      </c>
+      <c r="G61">
+        <v>48.840087890625</v>
+      </c>
+      <c r="H61">
+        <v>114.66015625</v>
+      </c>
+      <c r="I61">
+        <v>91.35009765625</v>
+      </c>
+      <c r="J61">
+        <v>114.330078125</v>
+      </c>
+      <c r="K61">
+        <v>78.77001953125</v>
+      </c>
+      <c r="L61">
+        <v>81.33984375</v>
+      </c>
+      <c r="M61">
+        <v>59.909912109375</v>
+      </c>
+      <c r="N61">
+        <v>70.68994140625</v>
+      </c>
+      <c r="O61">
+        <v>55.429931640625</v>
+      </c>
+      <c r="P61">
+        <v>75.27001953125</v>
+      </c>
+      <c r="Q61">
+        <v>78.31982421875</v>
+      </c>
+      <c r="R61">
+        <v>59.659912109375</v>
+      </c>
+      <c r="S61">
+        <v>70.52001953125</v>
+      </c>
+      <c r="T61">
+        <v>61.169921875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" t="s">
+        <v>78</v>
+      </c>
+      <c r="K62" t="s">
+        <v>67</v>
+      </c>
+      <c r="L62" t="s">
         <v>65</v>
       </c>
-      <c r="D61" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" t="s">
-        <v>77</v>
-      </c>
-      <c r="K61" t="s">
-        <v>66</v>
-      </c>
-      <c r="L61" t="s">
-        <v>64</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="M62" t="s">
         <v>33</v>
       </c>
-      <c r="N61" t="s">
-        <v>68</v>
-      </c>
-      <c r="O61" t="s">
-        <v>64</v>
-      </c>
-      <c r="P61" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>68</v>
-      </c>
-      <c r="R61" t="s">
+      <c r="N62" t="s">
+        <v>69</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>69</v>
+      </c>
+      <c r="R62" t="s">
         <v>26</v>
       </c>
-      <c r="S61" t="s">
-        <v>73</v>
-      </c>
-      <c r="T61" t="s">
-        <v>39</v>
+      <c r="S62" t="s">
+        <v>74</v>
+      </c>
+      <c r="T62" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4407,7 +4466,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A61"/>
+  <dimension ref="A2:A62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4713,6 +4772,11 @@
         <v>78</v>
       </c>
     </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4720,7 +4784,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4741,7 +4805,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4845,7 +4909,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4853,7 +4917,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4957,7 +5021,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4965,7 +5029,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4973,7 +5037,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4981,7 +5045,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4989,7 +5053,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4997,7 +5061,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5005,7 +5069,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5013,7 +5077,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5021,7 +5085,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5029,7 +5093,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5037,7 +5101,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5045,7 +5109,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5053,7 +5117,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5061,7 +5125,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5069,7 +5133,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5077,7 +5141,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5085,7 +5149,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5093,7 +5157,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5101,7 +5165,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5109,7 +5173,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5117,7 +5181,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5125,7 +5189,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5133,7 +5197,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5141,7 +5205,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5149,7 +5213,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5157,7 +5221,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5165,7 +5229,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5173,7 +5237,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5181,7 +5245,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5189,7 +5253,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5197,9 +5261,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -5210,7 +5282,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5223,7 +5295,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>192.5498046875</v>
@@ -5231,34 +5303,34 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>187.6298828125</v>
+        <v>188.669921875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>183.5</v>
+        <v>187.6298828125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>182.2998046875</v>
+        <v>183.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>181</v>
+        <v>182.2998046875</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5266,430 +5338,438 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>180.669921875</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>177.169921875</v>
+        <v>180.669921875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>172.2001953125</v>
+        <v>177.169921875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>172.000244140625</v>
+        <v>172.2001953125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B11">
-        <v>166.31005859375</v>
+        <v>172.000244140625</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B12">
-        <v>164.56982421875</v>
+        <v>166.31005859375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>164.47021484375</v>
+        <v>164.56982421875</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>164.429931640625</v>
+        <v>164.47021484375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B15">
-        <v>162.830078125</v>
+        <v>164.429931640625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B16">
-        <v>162.2802734375</v>
+        <v>162.830078125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B17">
-        <v>161.19970703125</v>
+        <v>162.2802734375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B18">
-        <v>160.8203125</v>
+        <v>161.19970703125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>159.740234375</v>
+        <v>160.8203125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>159.730224609375</v>
+        <v>159.740234375</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B21">
-        <v>159.64990234375</v>
+        <v>159.730224609375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B22">
-        <v>156.669921875</v>
+        <v>159.64990234375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B23">
-        <v>155.849609375</v>
+        <v>156.669921875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>154.72998046875</v>
+        <v>155.849609375</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25">
-        <v>154.25</v>
+        <v>154.72998046875</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B26">
-        <v>153.85009765625</v>
+        <v>154.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B27">
-        <v>151.60009765625</v>
+        <v>153.85009765625</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B28">
-        <v>151.4296875</v>
+        <v>151.60009765625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B29">
-        <v>148.05029296875</v>
+        <v>151.4296875</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>147.97021484375</v>
+        <v>148.05029296875</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>147.85009765625</v>
+        <v>147.97021484375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B32">
-        <v>147.60986328125</v>
+        <v>147.85009765625</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>146.97998046875</v>
+        <v>147.60986328125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B34">
-        <v>144.7001953125</v>
+        <v>146.97998046875</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>143.550048828125</v>
+        <v>144.7001953125</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B36">
-        <v>141.72998046875</v>
+        <v>143.550048828125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B37">
-        <v>140.81982421875</v>
+        <v>141.72998046875</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>140.80029296875</v>
+        <v>140.81982421875</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>140.77001953125</v>
+        <v>140.80029296875</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B40">
-        <v>135.22998046875</v>
+        <v>140.77001953125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B41">
-        <v>134.580078125</v>
+        <v>135.22998046875</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <v>131.68994140625</v>
+        <v>134.580078125</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B43">
-        <v>131.18994140625</v>
+        <v>131.68994140625</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B44">
-        <v>130.150146484375</v>
+        <v>131.18994140625</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B45">
-        <v>129.050048828125</v>
+        <v>130.150146484375</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>128.150146484375</v>
+        <v>129.050048828125</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>127.64990234375</v>
+        <v>128.150146484375</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B48">
-        <v>127.309814453125</v>
+        <v>127.64990234375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B49">
-        <v>127.270263671875</v>
+        <v>127.309814453125</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>126.169921875</v>
+        <v>127.270263671875</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B51">
-        <v>125</v>
+        <v>126.169921875</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B52">
-        <v>120.7802734375</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>118.920166015625</v>
+        <v>120.7802734375</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B54">
-        <v>117.770263671875</v>
+        <v>118.920166015625</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B55">
-        <v>117.670166015625</v>
+        <v>117.770263671875</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B56">
-        <v>116.059814453125</v>
+        <v>117.670166015625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>109.4998779296875</v>
+        <v>116.059814453125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B58">
-        <v>101.710205078125</v>
+        <v>109.4998779296875</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B59">
-        <v>96.280029296875</v>
+        <v>101.710205078125</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <v>96.280029296875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>92.159912109375</v>
       </c>
     </row>
@@ -5700,7 +5780,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5721,7 +5801,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5825,7 +5905,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5833,7 +5913,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5937,7 +6017,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5945,7 +6025,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5953,7 +6033,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5961,7 +6041,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5969,7 +6049,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5977,7 +6057,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5985,7 +6065,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5993,7 +6073,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6001,7 +6081,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6009,7 +6089,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6017,7 +6097,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6025,7 +6105,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -6033,7 +6113,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6041,7 +6121,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -6049,7 +6129,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6057,7 +6137,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6065,7 +6145,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6073,7 +6153,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6081,7 +6161,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6089,7 +6169,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6097,7 +6177,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6105,7 +6185,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6113,7 +6193,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6121,7 +6201,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6129,7 +6209,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6137,7 +6217,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6145,7 +6225,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6153,7 +6233,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6161,7 +6241,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6169,7 +6249,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6177,9 +6257,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -6190,7 +6278,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6211,7 +6299,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6315,7 +6403,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6323,7 +6411,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6427,7 +6515,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6435,7 +6523,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6443,7 +6531,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6451,7 +6539,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6459,7 +6547,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6467,7 +6555,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6475,7 +6563,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6483,7 +6571,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6491,7 +6579,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6499,7 +6587,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6507,7 +6595,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6515,7 +6603,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -6523,7 +6611,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6531,7 +6619,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -6539,7 +6627,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6547,7 +6635,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6555,7 +6643,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6563,7 +6651,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6571,7 +6659,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6579,7 +6667,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6587,7 +6675,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6595,7 +6683,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6603,7 +6691,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6611,7 +6699,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6619,7 +6707,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6627,7 +6715,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6635,7 +6723,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6643,7 +6731,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6651,7 +6739,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6659,7 +6747,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6667,9 +6755,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -6680,7 +6776,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6701,7 +6797,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6805,7 +6901,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6813,7 +6909,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6917,7 +7013,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6925,7 +7021,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6933,7 +7029,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6941,7 +7037,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6949,7 +7045,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6957,7 +7053,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6965,7 +7061,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6973,7 +7069,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6981,7 +7077,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6989,7 +7085,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6997,7 +7093,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7005,7 +7101,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7013,7 +7109,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7021,7 +7117,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7029,7 +7125,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7037,7 +7133,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7045,7 +7141,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7053,7 +7149,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7061,7 +7157,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7069,7 +7165,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7077,7 +7173,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7085,7 +7181,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7093,7 +7189,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7101,7 +7197,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7109,7 +7205,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7117,7 +7213,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7125,7 +7221,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7133,7 +7229,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7141,7 +7237,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7149,7 +7245,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7157,9 +7253,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -7170,7 +7274,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7191,7 +7295,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7295,7 +7399,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7303,7 +7407,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7407,7 +7511,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7415,7 +7519,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7423,7 +7527,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7431,7 +7535,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7439,7 +7543,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7447,7 +7551,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7455,7 +7559,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7463,7 +7567,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7471,7 +7575,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7479,7 +7583,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7487,7 +7591,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7495,7 +7599,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7503,7 +7607,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7511,7 +7615,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7519,7 +7623,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7527,7 +7631,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7535,7 +7639,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7543,7 +7647,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7551,7 +7655,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7559,7 +7663,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7567,7 +7671,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7575,7 +7679,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7583,7 +7687,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7591,7 +7695,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7599,7 +7703,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7607,7 +7711,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7615,7 +7719,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7623,7 +7727,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7631,7 +7735,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7639,7 +7743,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7647,9 +7751,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="81">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Rodada 19</t>
+  </si>
+  <si>
+    <t>Rodada 20</t>
   </si>
   <si>
     <t>A Lenda Super Vasco F.c</t>
@@ -618,13 +621,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,10 +685,13 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>59</v>
@@ -744,10 +750,13 @@
       <c r="T2">
         <v>66.0498046875</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>66.14990234375</v>
@@ -806,10 +815,13 @@
       <c r="T3">
         <v>65.10009765625</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>72.58984375</v>
@@ -868,10 +880,13 @@
       <c r="T4">
         <v>69.10009765625</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>66.68994140625</v>
@@ -930,10 +945,13 @@
       <c r="T5">
         <v>78.9501953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>64.08984375</v>
@@ -992,10 +1010,13 @@
       <c r="T6">
         <v>54.6298828125</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>71.08984375</v>
@@ -1054,10 +1075,13 @@
       <c r="T7">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>31.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>78.7998046875</v>
@@ -1116,10 +1140,13 @@
       <c r="T8">
         <v>65.85009765625</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>56.3798828125</v>
@@ -1178,10 +1205,13 @@
       <c r="T9">
         <v>30.1199951171875</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>73.08984375</v>
@@ -1240,10 +1270,13 @@
       <c r="T10">
         <v>69.60009765625</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>63.080078125</v>
@@ -1302,10 +1335,13 @@
       <c r="T11">
         <v>63.85009765625</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>26.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>63.489990234375</v>
@@ -1364,10 +1400,13 @@
       <c r="T12">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>72.5498046875</v>
@@ -1426,10 +1465,13 @@
       <c r="T13">
         <v>65.81005859375</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>63.64990234375</v>
@@ -1488,10 +1530,13 @@
       <c r="T14">
         <v>47.949951171875</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>50.030029296875</v>
@@ -1550,10 +1595,13 @@
       <c r="T15">
         <v>48.159912109375</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>64</v>
@@ -1612,10 +1660,19 @@
       <c r="T16">
         <v>74.10009765625</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
         <v>80.75</v>
@@ -1668,10 +1725,13 @@
       <c r="T17">
         <v>86.39990234375</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -1730,10 +1790,13 @@
       <c r="T18">
         <v>60.1201171875</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>66.5</v>
@@ -1792,10 +1855,13 @@
       <c r="T19">
         <v>60.429931640625</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>100.33984375</v>
@@ -1854,10 +1920,13 @@
       <c r="T20">
         <v>71.2998046875</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>95.22998046875</v>
@@ -1916,10 +1985,13 @@
       <c r="T21">
         <v>42.530029296875</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>64.7900390625</v>
@@ -1978,10 +2050,13 @@
       <c r="T22">
         <v>72.2998046875</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>64.5498046875</v>
@@ -2040,10 +2115,13 @@
       <c r="T23">
         <v>91.7998046875</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>79.2998046875</v>
@@ -2102,10 +2180,13 @@
       <c r="T24">
         <v>64.2998046875</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>72.240234375</v>
@@ -2164,10 +2245,13 @@
       <c r="T25">
         <v>57.35009765625</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>78.7998046875</v>
@@ -2226,10 +2310,13 @@
       <c r="T26">
         <v>67.52978515625</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27">
         <v>72.3798828125</v>
@@ -2288,10 +2375,13 @@
       <c r="T27">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>53.639892578125</v>
@@ -2350,10 +2440,13 @@
       <c r="T28">
         <v>88.830078125</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>67.14013671875</v>
@@ -2412,10 +2505,13 @@
       <c r="T29">
         <v>52.179931640625</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>66.2001953125</v>
@@ -2474,10 +2570,13 @@
       <c r="T30">
         <v>66.7001953125</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>63.5</v>
@@ -2536,10 +2635,13 @@
       <c r="T31">
         <v>58.330078125</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>47.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>85.14990234375</v>
@@ -2598,10 +2700,13 @@
       <c r="T32">
         <v>71.2001953125</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>82.68017578125</v>
@@ -2660,10 +2765,13 @@
       <c r="T33">
         <v>62.1298828125</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>96.18994140625</v>
@@ -2722,10 +2830,13 @@
       <c r="T34">
         <v>61.800048828125</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>58.989990234375</v>
@@ -2784,10 +2895,13 @@
       <c r="T35">
         <v>59.580078125</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36">
         <v>76.7900390625</v>
@@ -2846,10 +2960,13 @@
       <c r="T36">
         <v>57.449951171875</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>75.330078125</v>
@@ -2908,10 +3025,13 @@
       <c r="T37">
         <v>60.530029296875</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>74.68994140625</v>
@@ -2970,10 +3090,13 @@
       <c r="T38">
         <v>66.9501953125</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>96.39013671875</v>
@@ -3032,10 +3155,13 @@
       <c r="T39">
         <v>44.080078125</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40">
         <v>70.18994140625</v>
@@ -3094,10 +3220,13 @@
       <c r="T40">
         <v>64.60009765625</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41">
         <v>73.77978515625</v>
@@ -3156,10 +3285,13 @@
       <c r="T41">
         <v>76.43017578125</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42">
         <v>84.68994140625</v>
@@ -3218,10 +3350,13 @@
       <c r="T42">
         <v>56.6298828125</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43">
         <v>104.08984375</v>
@@ -3280,10 +3415,13 @@
       <c r="T43">
         <v>61.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44">
         <v>74.68994140625</v>
@@ -3342,10 +3480,13 @@
       <c r="T44">
         <v>62.449951171875</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45">
         <v>81.9501953125</v>
@@ -3404,10 +3545,13 @@
       <c r="T45">
         <v>45.25</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46">
         <v>83.990234375</v>
@@ -3466,10 +3610,13 @@
       <c r="T46">
         <v>36.179931640625</v>
       </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="U46">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47">
         <v>68.47998046875</v>
@@ -3528,10 +3675,13 @@
       <c r="T47">
         <v>66.35986328125</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="U47">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48">
         <v>68.39990234375</v>
@@ -3590,10 +3740,13 @@
       <c r="T48">
         <v>75.64990234375</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="U48">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49">
         <v>61.14990234375</v>
@@ -3652,10 +3805,13 @@
       <c r="T49">
         <v>46.030029296875</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="U49">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50">
         <v>93.85009765625</v>
@@ -3714,10 +3870,13 @@
       <c r="T50">
         <v>76.89990234375</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="U50">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51">
         <v>60.550048828125</v>
@@ -3776,10 +3935,13 @@
       <c r="T51">
         <v>73.4501953125</v>
       </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="U51">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52">
         <v>59.300048828125</v>
@@ -3838,10 +4000,13 @@
       <c r="T52">
         <v>55.10009765625</v>
       </c>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="U52">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53">
         <v>69.4501953125</v>
@@ -3900,10 +4065,13 @@
       <c r="T53">
         <v>51.300048828125</v>
       </c>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="U53">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54">
         <v>65.39990234375</v>
@@ -3962,10 +4130,13 @@
       <c r="T54">
         <v>62.030029296875</v>
       </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="U54">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55">
         <v>66.60009765625</v>
@@ -4024,10 +4195,13 @@
       <c r="T55">
         <v>48.1298828125</v>
       </c>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="U55">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56">
         <v>80.25</v>
@@ -4086,10 +4260,13 @@
       <c r="T56">
         <v>54.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="U56">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57">
         <v>74.08984375</v>
@@ -4148,10 +4325,13 @@
       <c r="T57">
         <v>68.25</v>
       </c>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="U57">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58">
         <v>64.47998046875</v>
@@ -4210,10 +4390,13 @@
       <c r="T58">
         <v>63.6298828125</v>
       </c>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="U58">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59">
         <v>67.68994140625</v>
@@ -4272,10 +4455,13 @@
       <c r="T59">
         <v>61.64990234375</v>
       </c>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="U59">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60">
         <v>69.39990234375</v>
@@ -4334,10 +4520,13 @@
       <c r="T60">
         <v>59.1298828125</v>
       </c>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61">
         <v>72.2900390625</v>
@@ -4396,67 +4585,73 @@
       <c r="T61">
         <v>61.169921875</v>
       </c>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="U61">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s">
-        <v>30</v>
-      </c>
-      <c r="I62" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" t="s">
-        <v>78</v>
-      </c>
-      <c r="K62" t="s">
-        <v>67</v>
-      </c>
-      <c r="L62" t="s">
-        <v>65</v>
-      </c>
-      <c r="M62" t="s">
-        <v>33</v>
-      </c>
-      <c r="N62" t="s">
-        <v>69</v>
-      </c>
-      <c r="O62" t="s">
-        <v>65</v>
-      </c>
-      <c r="P62" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>69</v>
-      </c>
-      <c r="R62" t="s">
-        <v>26</v>
-      </c>
-      <c r="S62" t="s">
-        <v>74</v>
-      </c>
-      <c r="T62" t="s">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4466,315 +4661,503 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>31.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>26.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="B31">
+        <v>47.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B40">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>61</v>
+      </c>
+      <c r="B43">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B46">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>65</v>
+      </c>
+      <c r="B47">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B48">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>67</v>
+      </c>
+      <c r="B49">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B50">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B52">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>71</v>
+      </c>
+      <c r="B53">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B54">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B55">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B56">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>75</v>
+      </c>
+      <c r="B57">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B58">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>77</v>
+      </c>
+      <c r="B59">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>79</v>
+      </c>
+      <c r="B61">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4797,346 +5180,346 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>47.55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>31.56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>26.95</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5144,7 +5527,7 @@
         <v>31</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5152,52 +5535,52 @@
         <v>32</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5205,7 +5588,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5213,7 +5596,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5221,7 +5604,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5229,7 +5612,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5237,7 +5620,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5245,7 +5628,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5253,26 +5636,26 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
     </row>
   </sheetData>
@@ -5295,138 +5678,138 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>192.5498046875</v>
+        <v>213.9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>188.669921875</v>
+        <v>198.269921875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B4">
-        <v>187.6298828125</v>
+        <v>196.6498046875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>183.5</v>
+        <v>193.069921875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>182.2998046875</v>
+        <v>187.6298828125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>181</v>
+        <v>187.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
-        <v>180.669921875</v>
+        <v>184.769921875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>177.169921875</v>
+        <v>181.0998046875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>172.2001953125</v>
+        <v>178.0203125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B11">
-        <v>172.000244140625</v>
+        <v>175.36982421875</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>166.31005859375</v>
+        <v>174.740234375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B13">
-        <v>164.56982421875</v>
+        <v>173.9001953125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B14">
-        <v>164.47021484375</v>
+        <v>172.44990234375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B15">
-        <v>164.429931640625</v>
+        <v>170.800244140625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B16">
-        <v>162.830078125</v>
+        <v>170.41005859375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B17">
-        <v>162.2802734375</v>
+        <v>170.329931640625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>161.19970703125</v>
+        <v>169.55009765625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5434,343 +5817,343 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>160.8203125</v>
+        <v>169.37021484375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>159.740234375</v>
+        <v>168.649609375</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21">
-        <v>159.730224609375</v>
+        <v>166.9302734375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B22">
-        <v>159.64990234375</v>
+        <v>165.220166015625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>156.669921875</v>
+        <v>164.47021484375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B24">
-        <v>155.849609375</v>
+        <v>163.7296875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B25">
-        <v>154.72998046875</v>
+        <v>163.030078125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B26">
-        <v>154.25</v>
+        <v>162.58994140625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B27">
-        <v>153.85009765625</v>
+        <v>161.369921875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B28">
-        <v>151.60009765625</v>
+        <v>161.19970703125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>151.4296875</v>
+        <v>160.4001953125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>148.05029296875</v>
+        <v>159.930224609375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>147.97021484375</v>
+        <v>156.56</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>147.85009765625</v>
+        <v>154.72998046875</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B33">
-        <v>147.60986328125</v>
+        <v>154.25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>146.97998046875</v>
+        <v>153.95029296875</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B35">
-        <v>144.7001953125</v>
+        <v>152.27998046875</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>143.550048828125</v>
+        <v>152.00009765625</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B37">
-        <v>141.72998046875</v>
+        <v>151.95009765625</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B38">
-        <v>140.81982421875</v>
+        <v>150.50986328125</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>140.80029296875</v>
+        <v>150.450048828125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>140.77001953125</v>
+        <v>148.24029296875</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B41">
-        <v>135.22998046875</v>
+        <v>147.369921875</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B42">
-        <v>134.580078125</v>
+        <v>146.409814453125</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>131.68994140625</v>
+        <v>145.870263671875</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B44">
-        <v>131.18994140625</v>
+        <v>145.02998046875</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B45">
-        <v>130.150146484375</v>
+        <v>144.87001953125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>129.050048828125</v>
+        <v>144.380078125</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B47">
-        <v>128.150146484375</v>
+        <v>144.16998046875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B48">
-        <v>127.64990234375</v>
+        <v>143.550048828125</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B49">
-        <v>127.309814453125</v>
+        <v>143.159814453125</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B50">
-        <v>127.270263671875</v>
+        <v>139.61982421875</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B51">
-        <v>126.169921875</v>
+        <v>138.80990234375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B52">
-        <v>125</v>
+        <v>136.2802734375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B53">
-        <v>120.7802734375</v>
+        <v>135.28994140625</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B54">
-        <v>118.920166015625</v>
+        <v>135.1998779296875</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55">
-        <v>117.770263671875</v>
+        <v>134.670263671875</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B56">
-        <v>117.670166015625</v>
+        <v>132.950146484375</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B57">
-        <v>116.059814453125</v>
+        <v>129.850146484375</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>109.4998779296875</v>
+        <v>128.660205078125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B59">
-        <v>101.710205078125</v>
+        <v>118.920166015625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>96.280029296875</v>
+        <v>109.480029296875</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B61">
-        <v>92.159912109375</v>
+        <v>96.55991210937501</v>
       </c>
     </row>
   </sheetData>
@@ -5793,7 +6176,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5801,7 +6184,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5809,7 +6192,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5817,7 +6200,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5825,7 +6208,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5833,7 +6216,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5841,7 +6224,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5849,7 +6232,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5857,7 +6240,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5865,7 +6248,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5873,7 +6256,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5881,7 +6264,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5889,7 +6272,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5897,7 +6280,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5905,7 +6288,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5913,7 +6296,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5921,7 +6304,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5929,7 +6312,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5937,7 +6320,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5945,7 +6328,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5953,7 +6336,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5961,7 +6344,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5969,7 +6352,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5977,7 +6360,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5985,7 +6368,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5993,7 +6376,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6001,7 +6384,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6009,7 +6392,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6017,7 +6400,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6025,7 +6408,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6033,7 +6416,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6041,7 +6424,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6049,7 +6432,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6057,7 +6440,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6065,7 +6448,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6073,7 +6456,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6081,7 +6464,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6089,7 +6472,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6097,7 +6480,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6105,7 +6488,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -6113,7 +6496,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6121,7 +6504,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -6129,7 +6512,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6137,7 +6520,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6145,7 +6528,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6153,7 +6536,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6161,7 +6544,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6169,7 +6552,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6177,7 +6560,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6185,7 +6568,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6193,7 +6576,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6201,7 +6584,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6209,7 +6592,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6217,7 +6600,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6225,7 +6608,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6233,7 +6616,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6241,7 +6624,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6249,7 +6632,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6257,7 +6640,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -6265,7 +6648,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -6291,7 +6674,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6299,7 +6682,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6307,7 +6690,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6315,7 +6698,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6323,7 +6706,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6331,7 +6714,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6339,7 +6722,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6347,7 +6730,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6355,7 +6738,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6363,7 +6746,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6371,7 +6754,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6379,7 +6762,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6387,7 +6770,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6395,7 +6778,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6403,7 +6786,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6411,7 +6794,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6419,7 +6802,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6427,7 +6810,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6435,7 +6818,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6443,7 +6826,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6451,7 +6834,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6459,7 +6842,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6467,7 +6850,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6475,7 +6858,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6483,7 +6866,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6491,7 +6874,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6499,7 +6882,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6507,7 +6890,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6515,7 +6898,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6523,7 +6906,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6531,7 +6914,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6539,7 +6922,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6547,7 +6930,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6555,7 +6938,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6563,7 +6946,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6571,7 +6954,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6579,7 +6962,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6587,7 +6970,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6595,7 +6978,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6603,7 +6986,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -6611,7 +6994,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6619,7 +7002,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -6627,7 +7010,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6635,7 +7018,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6643,7 +7026,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6651,7 +7034,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6659,7 +7042,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6667,7 +7050,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6675,7 +7058,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6683,7 +7066,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6691,7 +7074,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6699,7 +7082,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6707,7 +7090,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6715,7 +7098,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6723,7 +7106,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6731,7 +7114,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6739,7 +7122,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6747,7 +7130,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6755,7 +7138,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -6763,7 +7146,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -6789,7 +7172,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6797,7 +7180,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6805,7 +7188,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6813,7 +7196,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6821,7 +7204,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6829,7 +7212,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6837,7 +7220,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6845,7 +7228,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6853,7 +7236,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6861,7 +7244,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6869,7 +7252,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6877,7 +7260,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6885,7 +7268,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6893,7 +7276,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6901,7 +7284,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6909,7 +7292,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6917,7 +7300,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6925,7 +7308,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6933,7 +7316,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6941,7 +7324,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6949,7 +7332,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6957,7 +7340,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6965,7 +7348,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6973,7 +7356,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6981,7 +7364,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6989,7 +7372,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6997,7 +7380,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7005,7 +7388,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7013,7 +7396,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7021,7 +7404,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7029,7 +7412,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7037,7 +7420,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7045,7 +7428,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7053,7 +7436,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7061,7 +7444,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7069,7 +7452,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7077,7 +7460,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7085,7 +7468,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7093,7 +7476,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7101,7 +7484,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7109,7 +7492,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7117,7 +7500,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7125,7 +7508,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7133,7 +7516,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7141,7 +7524,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7149,7 +7532,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7157,7 +7540,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7165,7 +7548,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7173,7 +7556,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7181,7 +7564,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7189,7 +7572,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7197,7 +7580,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7205,7 +7588,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7213,7 +7596,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7221,7 +7604,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7229,7 +7612,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7237,7 +7620,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7245,7 +7628,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7253,7 +7636,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7261,7 +7644,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7287,7 +7670,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7295,7 +7678,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7303,7 +7686,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7311,7 +7694,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7319,7 +7702,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7327,7 +7710,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7335,7 +7718,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7343,7 +7726,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7351,7 +7734,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7359,7 +7742,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7367,7 +7750,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7375,7 +7758,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7383,7 +7766,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7391,7 +7774,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7399,7 +7782,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7407,7 +7790,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7415,7 +7798,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7423,7 +7806,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7431,7 +7814,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7439,7 +7822,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7447,7 +7830,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7455,7 +7838,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7463,7 +7846,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7471,7 +7854,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7479,7 +7862,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -7487,7 +7870,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7495,7 +7878,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7503,7 +7886,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7511,7 +7894,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7519,7 +7902,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7527,7 +7910,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7535,7 +7918,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7543,7 +7926,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7551,7 +7934,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7559,7 +7942,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7567,7 +7950,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7575,7 +7958,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7583,7 +7966,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7591,7 +7974,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7599,7 +7982,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7607,7 +7990,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7615,7 +7998,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7623,7 +8006,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7631,7 +8014,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7639,7 +8022,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7647,7 +8030,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7655,7 +8038,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7663,7 +8046,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7671,7 +8054,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7679,7 +8062,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7687,7 +8070,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7695,7 +8078,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7703,7 +8086,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7711,7 +8094,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7719,7 +8102,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7727,7 +8110,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7735,7 +8118,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7743,7 +8126,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7751,7 +8134,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7759,7 +8142,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61">
         <v>0</v>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -751,7 +751,7 @@
         <v>66.0498046875</v>
       </c>
       <c r="U2">
-        <v>12.8</v>
+        <v>55.53</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -816,7 +816,7 @@
         <v>65.10009765625</v>
       </c>
       <c r="U3">
-        <v>15.7</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -881,7 +881,7 @@
         <v>69.10009765625</v>
       </c>
       <c r="U4">
-        <v>21.4</v>
+        <v>47.72</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -946,7 +946,7 @@
         <v>78.9501953125</v>
       </c>
       <c r="U5">
-        <v>17.2</v>
+        <v>49.97</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1011,7 +1011,7 @@
         <v>54.6298828125</v>
       </c>
       <c r="U6">
-        <v>8.94</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1076,7 +1076,7 @@
         <v>55</v>
       </c>
       <c r="U7">
-        <v>31.56</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1141,7 +1141,7 @@
         <v>65.85009765625</v>
       </c>
       <c r="U8">
-        <v>5.9</v>
+        <v>34.72</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1206,7 +1206,7 @@
         <v>30.1199951171875</v>
       </c>
       <c r="U9">
-        <v>25.7</v>
+        <v>47.92</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1271,7 +1271,7 @@
         <v>69.60009765625</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>46.27</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1336,7 +1336,7 @@
         <v>63.85009765625</v>
       </c>
       <c r="U11">
-        <v>26.95</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1401,7 +1401,7 @@
         <v>69.5</v>
       </c>
       <c r="U12">
-        <v>-1.2</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1466,7 +1466,7 @@
         <v>65.81005859375</v>
       </c>
       <c r="U13">
-        <v>2.9</v>
+        <v>36.92</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1531,7 +1531,7 @@
         <v>47.949951171875</v>
       </c>
       <c r="U14">
-        <v>2.8</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1596,7 +1596,7 @@
         <v>48.159912109375</v>
       </c>
       <c r="U15">
-        <v>4.4</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1661,7 +1661,7 @@
         <v>74.10009765625</v>
       </c>
       <c r="U16">
-        <v>4.1</v>
+        <v>38.27</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1726,7 +1726,7 @@
         <v>86.39990234375</v>
       </c>
       <c r="U17">
-        <v>4.4</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1791,7 +1791,7 @@
         <v>60.1201171875</v>
       </c>
       <c r="U18">
-        <v>4.1</v>
+        <v>46.36</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1856,7 +1856,7 @@
         <v>60.429931640625</v>
       </c>
       <c r="U19">
-        <v>5.9</v>
+        <v>38.37</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1921,7 +1921,7 @@
         <v>71.2998046875</v>
       </c>
       <c r="U20">
-        <v>-1.2</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1986,7 +1986,7 @@
         <v>42.530029296875</v>
       </c>
       <c r="U21">
-        <v>19.1</v>
+        <v>29.76</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2051,7 +2051,7 @@
         <v>72.2998046875</v>
       </c>
       <c r="U22">
-        <v>32.9</v>
+        <v>59.77</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2116,7 +2116,7 @@
         <v>91.7998046875</v>
       </c>
       <c r="U23">
-        <v>4.1</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2181,7 +2181,7 @@
         <v>64.2998046875</v>
       </c>
       <c r="U24">
-        <v>4.7</v>
+        <v>33.52</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2246,7 +2246,7 @@
         <v>57.35009765625</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>38.82</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2311,7 +2311,7 @@
         <v>67.52978515625</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2376,7 +2376,7 @@
         <v>52</v>
       </c>
       <c r="U27">
-        <v>9.800000000000001</v>
+        <v>31.67</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2441,7 +2441,7 @@
         <v>88.830078125</v>
       </c>
       <c r="U28">
-        <v>15</v>
+        <v>62.32</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2506,7 +2506,7 @@
         <v>52.179931640625</v>
       </c>
       <c r="U29">
-        <v>21.4</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2571,7 +2571,7 @@
         <v>66.7001953125</v>
       </c>
       <c r="U30">
-        <v>1.7</v>
+        <v>37.72</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2636,7 +2636,7 @@
         <v>58.330078125</v>
       </c>
       <c r="U31">
-        <v>47.55</v>
+        <v>52.85</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2701,7 +2701,7 @@
         <v>71.2001953125</v>
       </c>
       <c r="U32">
-        <v>7.44</v>
+        <v>37.94</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2766,7 +2766,7 @@
         <v>62.1298828125</v>
       </c>
       <c r="U33">
-        <v>12.3</v>
+        <v>41.48</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2831,7 +2831,7 @@
         <v>61.800048828125</v>
       </c>
       <c r="U34">
-        <v>18.6</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2896,7 +2896,7 @@
         <v>59.580078125</v>
       </c>
       <c r="U35">
-        <v>4.65</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2961,7 +2961,7 @@
         <v>57.449951171875</v>
       </c>
       <c r="U36">
-        <v>1.7</v>
+        <v>39.03</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3026,7 +3026,7 @@
         <v>60.530029296875</v>
       </c>
       <c r="U37">
-        <v>0.2</v>
+        <v>35.36</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3091,7 +3091,7 @@
         <v>66.9501953125</v>
       </c>
       <c r="U38">
-        <v>15.7</v>
+        <v>37.36</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3156,7 +3156,7 @@
         <v>44.080078125</v>
       </c>
       <c r="U39">
-        <v>15.5</v>
+        <v>39.52</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3221,7 +3221,7 @@
         <v>64.60009765625</v>
       </c>
       <c r="U40">
-        <v>21.1</v>
+        <v>47.97</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3286,7 +3286,7 @@
         <v>76.43017578125</v>
       </c>
       <c r="U41">
-        <v>3.3</v>
+        <v>52.72</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3351,7 +3351,7 @@
         <v>56.6298828125</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>38.27</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3416,7 +3416,7 @@
         <v>61.5</v>
       </c>
       <c r="U43">
-        <v>4.1</v>
+        <v>43.77</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3481,7 +3481,7 @@
         <v>62.449951171875</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>51.33</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3546,7 +3546,7 @@
         <v>45.25</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>40.21</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3611,7 +3611,7 @@
         <v>36.179931640625</v>
       </c>
       <c r="U46">
-        <v>27.1</v>
+        <v>44.92</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3676,7 +3676,7 @@
         <v>66.35986328125</v>
       </c>
       <c r="U47">
-        <v>5.3</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3741,7 +3741,7 @@
         <v>75.64990234375</v>
       </c>
       <c r="U48">
-        <v>10.8</v>
+        <v>44.17</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3806,7 +3806,7 @@
         <v>46.030029296875</v>
       </c>
       <c r="U49">
-        <v>13.2</v>
+        <v>37.96</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3871,7 +3871,7 @@
         <v>76.89990234375</v>
       </c>
       <c r="U50">
-        <v>4.1</v>
+        <v>56.07</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3936,7 +3936,7 @@
         <v>73.4501953125</v>
       </c>
       <c r="U51">
-        <v>4.1</v>
+        <v>52.33</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -4001,7 +4001,7 @@
         <v>55.10009765625</v>
       </c>
       <c r="U52">
-        <v>21.2</v>
+        <v>49.86</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -4066,7 +4066,7 @@
         <v>51.300048828125</v>
       </c>
       <c r="U53">
-        <v>16.9</v>
+        <v>51.67</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -4131,7 +4131,7 @@
         <v>62.030029296875</v>
       </c>
       <c r="U54">
-        <v>-1.2</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4196,7 +4196,7 @@
         <v>48.1298828125</v>
       </c>
       <c r="U55">
-        <v>11.16</v>
+        <v>55.71</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4261,7 +4261,7 @@
         <v>54.5</v>
       </c>
       <c r="U56">
-        <v>0.4</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4326,7 +4326,7 @@
         <v>68.25</v>
       </c>
       <c r="U57">
-        <v>4.1</v>
+        <v>35.87</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4391,7 +4391,7 @@
         <v>63.6298828125</v>
       </c>
       <c r="U58">
-        <v>0.2</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4456,7 +4456,7 @@
         <v>61.64990234375</v>
       </c>
       <c r="U59">
-        <v>12.8</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4521,7 +4521,7 @@
         <v>59.1298828125</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>29.86</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4586,7 +4586,7 @@
         <v>61.169921875</v>
       </c>
       <c r="U61">
-        <v>30.9</v>
+        <v>122.78</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4677,7 +4677,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>12.8</v>
+        <v>55.53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4685,7 +4685,7 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>15.7</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4693,7 +4693,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>21.4</v>
+        <v>47.72</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>17.2</v>
+        <v>49.97</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4709,7 +4709,7 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>8.94</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4717,7 +4717,7 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>31.56</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4725,7 +4725,7 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>5.9</v>
+        <v>34.72</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4733,7 +4733,7 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>25.7</v>
+        <v>47.92</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4741,7 +4741,7 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>46.27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4749,7 +4749,7 @@
         <v>29</v>
       </c>
       <c r="B11">
-        <v>26.95</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4757,7 +4757,7 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <v>-1.2</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4765,7 +4765,7 @@
         <v>31</v>
       </c>
       <c r="B13">
-        <v>2.9</v>
+        <v>36.92</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4773,7 +4773,7 @@
         <v>32</v>
       </c>
       <c r="B14">
-        <v>2.8</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4781,7 +4781,7 @@
         <v>33</v>
       </c>
       <c r="B15">
-        <v>4.4</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4789,7 +4789,7 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>4.1</v>
+        <v>38.27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4797,7 +4797,7 @@
         <v>35</v>
       </c>
       <c r="B17">
-        <v>4.4</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>36</v>
       </c>
       <c r="B18">
-        <v>4.1</v>
+        <v>46.36</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>37</v>
       </c>
       <c r="B19">
-        <v>5.9</v>
+        <v>38.37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>38</v>
       </c>
       <c r="B20">
-        <v>-1.2</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4829,7 +4829,7 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <v>19.1</v>
+        <v>29.76</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4837,7 +4837,7 @@
         <v>40</v>
       </c>
       <c r="B22">
-        <v>32.9</v>
+        <v>59.77</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4845,7 +4845,7 @@
         <v>41</v>
       </c>
       <c r="B23">
-        <v>4.1</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>42</v>
       </c>
       <c r="B24">
-        <v>4.7</v>
+        <v>33.52</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4861,7 +4861,7 @@
         <v>43</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>38.82</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4869,7 +4869,7 @@
         <v>44</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4877,7 +4877,7 @@
         <v>45</v>
       </c>
       <c r="B27">
-        <v>9.800000000000001</v>
+        <v>31.67</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4885,7 +4885,7 @@
         <v>46</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>62.32</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4893,7 +4893,7 @@
         <v>47</v>
       </c>
       <c r="B29">
-        <v>21.4</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4901,7 +4901,7 @@
         <v>48</v>
       </c>
       <c r="B30">
-        <v>1.7</v>
+        <v>37.72</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4909,7 +4909,7 @@
         <v>49</v>
       </c>
       <c r="B31">
-        <v>47.55</v>
+        <v>52.85</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4917,7 +4917,7 @@
         <v>50</v>
       </c>
       <c r="B32">
-        <v>7.44</v>
+        <v>37.94</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4925,7 +4925,7 @@
         <v>51</v>
       </c>
       <c r="B33">
-        <v>12.3</v>
+        <v>41.48</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4933,7 +4933,7 @@
         <v>52</v>
       </c>
       <c r="B34">
-        <v>18.6</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>53</v>
       </c>
       <c r="B35">
-        <v>4.65</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>54</v>
       </c>
       <c r="B36">
-        <v>1.7</v>
+        <v>39.03</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>55</v>
       </c>
       <c r="B37">
-        <v>0.2</v>
+        <v>35.36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4965,7 +4965,7 @@
         <v>56</v>
       </c>
       <c r="B38">
-        <v>15.7</v>
+        <v>37.36</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4973,7 +4973,7 @@
         <v>57</v>
       </c>
       <c r="B39">
-        <v>15.5</v>
+        <v>39.52</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4981,7 +4981,7 @@
         <v>58</v>
       </c>
       <c r="B40">
-        <v>21.1</v>
+        <v>47.97</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4989,7 +4989,7 @@
         <v>59</v>
       </c>
       <c r="B41">
-        <v>3.3</v>
+        <v>52.72</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4997,7 +4997,7 @@
         <v>60</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>38.27</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>61</v>
       </c>
       <c r="B43">
-        <v>4.1</v>
+        <v>43.77</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>62</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>51.33</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5021,7 +5021,7 @@
         <v>63</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>40.21</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>64</v>
       </c>
       <c r="B46">
-        <v>27.1</v>
+        <v>44.92</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5037,7 +5037,7 @@
         <v>65</v>
       </c>
       <c r="B47">
-        <v>5.3</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5045,7 +5045,7 @@
         <v>66</v>
       </c>
       <c r="B48">
-        <v>10.8</v>
+        <v>44.17</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>67</v>
       </c>
       <c r="B49">
-        <v>13.2</v>
+        <v>37.96</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>68</v>
       </c>
       <c r="B50">
-        <v>4.1</v>
+        <v>56.07</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>69</v>
       </c>
       <c r="B51">
-        <v>4.1</v>
+        <v>52.33</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5077,7 +5077,7 @@
         <v>70</v>
       </c>
       <c r="B52">
-        <v>21.2</v>
+        <v>49.86</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>71</v>
       </c>
       <c r="B53">
-        <v>16.9</v>
+        <v>51.67</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>72</v>
       </c>
       <c r="B54">
-        <v>-1.2</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>73</v>
       </c>
       <c r="B55">
-        <v>11.16</v>
+        <v>55.71</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>74</v>
       </c>
       <c r="B56">
-        <v>0.4</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5117,7 +5117,7 @@
         <v>75</v>
       </c>
       <c r="B57">
-        <v>4.1</v>
+        <v>35.87</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5125,7 +5125,7 @@
         <v>76</v>
       </c>
       <c r="B58">
-        <v>0.2</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5133,7 +5133,7 @@
         <v>77</v>
       </c>
       <c r="B59">
-        <v>12.8</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5141,7 +5141,7 @@
         <v>78</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>29.86</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5149,7 +5149,7 @@
         <v>79</v>
       </c>
       <c r="B61">
-        <v>30.9</v>
+        <v>122.78</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5180,482 +5180,482 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B2">
-        <v>47.55</v>
+        <v>122.78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>32.9</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>31.56</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>30.9</v>
+        <v>62.32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>27.1</v>
+        <v>59.77</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B7">
-        <v>26.95</v>
+        <v>56.07</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B8">
-        <v>25.7</v>
+        <v>55.71</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>21.4</v>
+        <v>55.53</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>21.4</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>21.2</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B12">
-        <v>21.1</v>
+        <v>52.85</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B13">
-        <v>19.1</v>
+        <v>52.72</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B14">
-        <v>18.6</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>17.2</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16">
-        <v>16.9</v>
+        <v>52.33</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B17">
-        <v>15.7</v>
+        <v>51.67</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B18">
-        <v>15.7</v>
+        <v>51.33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>15.5</v>
+        <v>49.97</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>49.86</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B21">
-        <v>13.2</v>
+        <v>47.97</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>12.8</v>
+        <v>47.92</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>12.8</v>
+        <v>47.72</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>12.3</v>
+        <v>46.36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>11.16</v>
+        <v>46.27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>10.8</v>
+        <v>44.92</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>9.800000000000001</v>
+        <v>44.17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B28">
-        <v>8.94</v>
+        <v>43.77</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29">
-        <v>7.44</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B30">
-        <v>5.9</v>
+        <v>41.48</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B31">
-        <v>5.9</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32">
-        <v>5.3</v>
+        <v>40.21</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B33">
-        <v>4.7</v>
+        <v>39.52</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34">
-        <v>4.65</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B35">
-        <v>4.4</v>
+        <v>39.03</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>4.4</v>
+        <v>38.82</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>4.1</v>
+        <v>38.37</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B38">
-        <v>4.1</v>
+        <v>38.27</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B39">
-        <v>4.1</v>
+        <v>38.27</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40">
-        <v>4.1</v>
+        <v>37.96</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>4.1</v>
+        <v>37.94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>4.1</v>
+        <v>37.72</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B43">
-        <v>4.1</v>
+        <v>37.36</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B44">
-        <v>3.3</v>
+        <v>36.92</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B45">
-        <v>2.9</v>
+        <v>35.87</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>2.8</v>
+        <v>35.36</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>1.7</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>1.7</v>
+        <v>34.72</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B49">
-        <v>0.4</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B50">
-        <v>0.2</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B51">
-        <v>0.2</v>
+        <v>33.52</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>31.67</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>29.86</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>29.76</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B59">
-        <v>-1.2</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B60">
-        <v>-1.2</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-1.2</v>
+        <v>17.52</v>
       </c>
     </row>
   </sheetData>
@@ -5678,306 +5678,306 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B2">
-        <v>213.9</v>
+        <v>254.46994140625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>198.269921875</v>
+        <v>240.77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>196.6498046875</v>
+        <v>235.289921875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B5">
-        <v>193.069921875</v>
+        <v>228.4198046875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>187.6298828125</v>
+        <v>225.139921875</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B7">
-        <v>187.6</v>
+        <v>222.38005859375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>184.769921875</v>
+        <v>222.060234375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>181.0998046875</v>
+        <v>221.77</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>178.0203125</v>
+        <v>221.6898828125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>175.36982421875</v>
+        <v>212.9698046875</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B12">
-        <v>174.740234375</v>
+        <v>212.21990234375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>173.9001953125</v>
+        <v>211.969921875</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>172.44990234375</v>
+        <v>211.379609375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>170.800244140625</v>
+        <v>210.7903125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B16">
-        <v>170.41005859375</v>
+        <v>210.74021484375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B17">
-        <v>170.329931640625</v>
+        <v>209.9201953125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B18">
-        <v>169.55009765625</v>
+        <v>208.73982421875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B19">
-        <v>169.37021484375</v>
+        <v>206.560244140625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B20">
-        <v>168.649609375</v>
+        <v>204.100078125</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>166.9302734375</v>
+        <v>202.799931640625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B22">
-        <v>165.220166015625</v>
+        <v>200.18009765625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B23">
-        <v>164.47021484375</v>
+        <v>197.5302734375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>163.7296875</v>
+        <v>197.2201953125</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>163.030078125</v>
+        <v>195.69021484375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B26">
-        <v>162.58994140625</v>
+        <v>195.090224609375</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B27">
-        <v>161.369921875</v>
+        <v>194.880048828125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B28">
-        <v>161.19970703125</v>
+        <v>194.46</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B29">
-        <v>160.4001953125</v>
+        <v>194.44998046875</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B30">
-        <v>159.930224609375</v>
+        <v>192.99998046875</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B31">
-        <v>156.56</v>
+        <v>192.9096875</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B32">
-        <v>154.72998046875</v>
+        <v>191.21009765625</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B33">
-        <v>154.25</v>
+        <v>191.05970703125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>153.95029296875</v>
+        <v>190.189921875</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>152.27998046875</v>
+        <v>189.910205078125</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B36">
-        <v>152.00009765625</v>
+        <v>184.54001953125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>151.95009765625</v>
+        <v>184.52986328125</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B38">
-        <v>150.50986328125</v>
+        <v>183.35990234375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B39">
-        <v>150.450048828125</v>
+        <v>182.77029296875</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5985,175 +5985,175 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>148.24029296875</v>
+        <v>178.74029296875</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>147.369921875</v>
+        <v>178.26</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B42">
-        <v>146.409814453125</v>
+        <v>177.54994140625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B43">
-        <v>145.870263671875</v>
+        <v>176.029921875</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>145.02998046875</v>
+        <v>171.870048828125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B45">
-        <v>144.87001953125</v>
+        <v>171.77982421875</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B46">
-        <v>144.380078125</v>
+        <v>171.35009765625</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>144.16998046875</v>
+        <v>170.520166015625</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B48">
-        <v>143.550048828125</v>
+        <v>169.440263671875</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B49">
-        <v>143.159814453125</v>
+        <v>169.409912109375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>139.61982421875</v>
+        <v>167.180146484375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>138.80990234375</v>
+        <v>166.490263671875</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B52">
-        <v>136.2802734375</v>
+        <v>166.250078125</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B53">
-        <v>135.28994140625</v>
+        <v>164.49998046875</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>135.1998779296875</v>
+        <v>161.86998046875</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>134.670263671875</v>
+        <v>160.979814453125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>132.950146484375</v>
+        <v>160.3002734375</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B57">
-        <v>129.850146484375</v>
+        <v>157.740166015625</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B58">
-        <v>128.660205078125</v>
+        <v>157.4198779296875</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B59">
-        <v>118.920166015625</v>
+        <v>157.069814453125</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B60">
-        <v>109.480029296875</v>
+        <v>153.550146484375</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>96.55991210937501</v>
+        <v>134.240029296875</v>
       </c>
     </row>
   </sheetData>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -751,7 +751,7 @@
         <v>66.0498046875</v>
       </c>
       <c r="U2">
-        <v>55.53</v>
+        <v>87.330078125</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -816,7 +816,7 @@
         <v>65.10009765625</v>
       </c>
       <c r="U3">
-        <v>52.52</v>
+        <v>80.85986328125</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -881,7 +881,7 @@
         <v>69.10009765625</v>
       </c>
       <c r="U4">
-        <v>47.72</v>
+        <v>68.10986328125</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -946,7 +946,7 @@
         <v>78.9501953125</v>
       </c>
       <c r="U5">
-        <v>49.97</v>
+        <v>63.4599609375</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1011,7 +1011,7 @@
         <v>54.6298828125</v>
       </c>
       <c r="U6">
-        <v>26.64</v>
+        <v>47.639892578125</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1076,7 +1076,7 @@
         <v>55</v>
       </c>
       <c r="U7">
-        <v>53.26</v>
+        <v>76.06005859375</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1141,7 +1141,7 @@
         <v>65.85009765625</v>
       </c>
       <c r="U8">
-        <v>34.72</v>
+        <v>71.35986328125</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1206,7 +1206,7 @@
         <v>30.1199951171875</v>
       </c>
       <c r="U9">
-        <v>47.92</v>
+        <v>61.81005859375</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1271,7 +1271,7 @@
         <v>69.60009765625</v>
       </c>
       <c r="U10">
-        <v>46.27</v>
+        <v>73.9599609375</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1336,7 +1336,7 @@
         <v>63.85009765625</v>
       </c>
       <c r="U11">
-        <v>88.2</v>
+        <v>91.10009765625</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1401,7 +1401,7 @@
         <v>69.5</v>
       </c>
       <c r="U12">
-        <v>30.67</v>
+        <v>58.56005859375</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1466,7 +1466,7 @@
         <v>65.81005859375</v>
       </c>
       <c r="U13">
-        <v>36.92</v>
+        <v>46.7099609375</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1531,7 +1531,7 @@
         <v>47.949951171875</v>
       </c>
       <c r="U14">
-        <v>23.4</v>
+        <v>64.91015625</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1596,7 +1596,7 @@
         <v>48.159912109375</v>
       </c>
       <c r="U15">
-        <v>77.25</v>
+        <v>96.35009765625</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1661,7 +1661,7 @@
         <v>74.10009765625</v>
       </c>
       <c r="U16">
-        <v>38.27</v>
+        <v>59.659912109375</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1726,7 +1726,7 @@
         <v>86.39990234375</v>
       </c>
       <c r="U17">
-        <v>23.3</v>
+        <v>59.909912109375</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1791,7 +1791,7 @@
         <v>60.1201171875</v>
       </c>
       <c r="U18">
-        <v>46.36</v>
+        <v>74.41015625</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1856,7 +1856,7 @@
         <v>60.429931640625</v>
       </c>
       <c r="U19">
-        <v>38.37</v>
+        <v>71.759765625</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1921,7 +1921,7 @@
         <v>71.2998046875</v>
       </c>
       <c r="U20">
-        <v>30.96</v>
+        <v>64.259765625</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1986,7 +1986,7 @@
         <v>42.530029296875</v>
       </c>
       <c r="U21">
-        <v>29.76</v>
+        <v>53.260009765625</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2051,7 +2051,7 @@
         <v>72.2998046875</v>
       </c>
       <c r="U22">
-        <v>59.77</v>
+        <v>79.9599609375</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2116,7 +2116,7 @@
         <v>91.7998046875</v>
       </c>
       <c r="U23">
-        <v>54.62</v>
+        <v>81.4599609375</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2181,7 +2181,7 @@
         <v>64.2998046875</v>
       </c>
       <c r="U24">
-        <v>33.52</v>
+        <v>66.259765625</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2246,7 +2246,7 @@
         <v>57.35009765625</v>
       </c>
       <c r="U25">
-        <v>38.82</v>
+        <v>75.9599609375</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2311,7 +2311,7 @@
         <v>67.52978515625</v>
       </c>
       <c r="U26">
-        <v>34.06</v>
+        <v>62.9599609375</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2376,7 +2376,7 @@
         <v>52</v>
       </c>
       <c r="U27">
-        <v>31.67</v>
+        <v>62.56005859375</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2441,7 +2441,7 @@
         <v>88.830078125</v>
       </c>
       <c r="U28">
-        <v>62.32</v>
+        <v>80.91015625</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2506,7 +2506,7 @@
         <v>52.179931640625</v>
       </c>
       <c r="U29">
-        <v>42.82</v>
+        <v>50.31005859375</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2571,7 +2571,7 @@
         <v>66.7001953125</v>
       </c>
       <c r="U30">
-        <v>37.72</v>
+        <v>70.35986328125</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2636,7 +2636,7 @@
         <v>58.330078125</v>
       </c>
       <c r="U31">
-        <v>52.85</v>
+        <v>83.64990234375</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2701,7 +2701,7 @@
         <v>71.2001953125</v>
       </c>
       <c r="U32">
-        <v>37.94</v>
+        <v>69.39013671875</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2766,7 +2766,7 @@
         <v>62.1298828125</v>
       </c>
       <c r="U33">
-        <v>41.48</v>
+        <v>79.1298828125</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2831,7 +2831,7 @@
         <v>61.800048828125</v>
       </c>
       <c r="U34">
-        <v>39.22</v>
+        <v>43.010009765625</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2896,7 +2896,7 @@
         <v>59.580078125</v>
       </c>
       <c r="U35">
-        <v>35.25</v>
+        <v>90.10009765625</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2961,7 +2961,7 @@
         <v>57.449951171875</v>
       </c>
       <c r="U36">
-        <v>39.03</v>
+        <v>62.97998046875</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3026,7 +3026,7 @@
         <v>60.530029296875</v>
       </c>
       <c r="U37">
-        <v>35.36</v>
+        <v>65.4599609375</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3091,7 +3091,7 @@
         <v>66.9501953125</v>
       </c>
       <c r="U38">
-        <v>37.36</v>
+        <v>71.06005859375</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3156,7 +3156,7 @@
         <v>44.080078125</v>
       </c>
       <c r="U39">
-        <v>39.52</v>
+        <v>69.9599609375</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3221,7 +3221,7 @@
         <v>64.60009765625</v>
       </c>
       <c r="U40">
-        <v>47.97</v>
+        <v>77.41015625</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3286,7 +3286,7 @@
         <v>76.43017578125</v>
       </c>
       <c r="U41">
-        <v>52.72</v>
+        <v>75.60986328125</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3351,7 +3351,7 @@
         <v>56.6298828125</v>
       </c>
       <c r="U42">
-        <v>38.27</v>
+        <v>76.509765625</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3416,7 +3416,7 @@
         <v>61.5</v>
       </c>
       <c r="U43">
-        <v>43.77</v>
+        <v>63.9599609375</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3481,7 +3481,7 @@
         <v>62.449951171875</v>
       </c>
       <c r="U44">
-        <v>51.33</v>
+        <v>78.93017578125</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3546,7 +3546,7 @@
         <v>45.25</v>
       </c>
       <c r="U45">
-        <v>40.21</v>
+        <v>70.56005859375</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3611,7 +3611,7 @@
         <v>36.179931640625</v>
       </c>
       <c r="U46">
-        <v>44.92</v>
+        <v>54.7099609375</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3676,7 +3676,7 @@
         <v>66.35986328125</v>
       </c>
       <c r="U47">
-        <v>17.52</v>
+        <v>18.81005859375</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3741,7 +3741,7 @@
         <v>75.64990234375</v>
       </c>
       <c r="U48">
-        <v>44.17</v>
+        <v>70.81005859375</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3806,7 +3806,7 @@
         <v>46.030029296875</v>
       </c>
       <c r="U49">
-        <v>37.96</v>
+        <v>41.860107421875</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3871,7 +3871,7 @@
         <v>76.89990234375</v>
       </c>
       <c r="U50">
-        <v>56.07</v>
+        <v>73.35986328125</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3936,7 +3936,7 @@
         <v>73.4501953125</v>
       </c>
       <c r="U51">
-        <v>52.33</v>
+        <v>69.52978515625</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -4001,7 +4001,7 @@
         <v>55.10009765625</v>
       </c>
       <c r="U52">
-        <v>49.86</v>
+        <v>68.06005859375</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -4066,7 +4066,7 @@
         <v>51.300048828125</v>
       </c>
       <c r="U53">
-        <v>51.67</v>
+        <v>83.56005859375</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -4131,7 +4131,7 @@
         <v>62.030029296875</v>
       </c>
       <c r="U54">
-        <v>34.56</v>
+        <v>62.159912109375</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4196,7 +4196,7 @@
         <v>48.1298828125</v>
       </c>
       <c r="U55">
-        <v>55.71</v>
+        <v>85.85986328125</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4261,7 +4261,7 @@
         <v>54.5</v>
       </c>
       <c r="U56">
-        <v>19.75</v>
+        <v>65.16015625</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4326,7 +4326,7 @@
         <v>68.25</v>
       </c>
       <c r="U57">
-        <v>35.87</v>
+        <v>69.9599609375</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4391,7 +4391,7 @@
         <v>63.6298828125</v>
       </c>
       <c r="U58">
-        <v>41.27</v>
+        <v>71.4599609375</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4456,7 +4456,7 @@
         <v>61.64990234375</v>
       </c>
       <c r="U59">
-        <v>52.57</v>
+        <v>84.4599609375</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4521,7 +4521,7 @@
         <v>59.1298828125</v>
       </c>
       <c r="U60">
-        <v>29.86</v>
+        <v>62.06005859375</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4586,7 +4586,7 @@
         <v>61.169921875</v>
       </c>
       <c r="U61">
-        <v>122.78</v>
+        <v>124.68017578125</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4677,7 +4677,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>55.53</v>
+        <v>87.330078125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4685,7 +4685,7 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>52.52</v>
+        <v>80.85986328125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4693,7 +4693,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>47.72</v>
+        <v>68.10986328125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>49.97</v>
+        <v>63.4599609375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4709,7 +4709,7 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>26.64</v>
+        <v>47.639892578125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4717,7 +4717,7 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>53.26</v>
+        <v>76.06005859375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4725,7 +4725,7 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>34.72</v>
+        <v>71.35986328125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4733,7 +4733,7 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>47.92</v>
+        <v>61.81005859375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4741,7 +4741,7 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>46.27</v>
+        <v>73.9599609375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4749,7 +4749,7 @@
         <v>29</v>
       </c>
       <c r="B11">
-        <v>88.2</v>
+        <v>91.10009765625</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4757,7 +4757,7 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <v>30.67</v>
+        <v>58.56005859375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4765,7 +4765,7 @@
         <v>31</v>
       </c>
       <c r="B13">
-        <v>36.92</v>
+        <v>46.7099609375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4773,7 +4773,7 @@
         <v>32</v>
       </c>
       <c r="B14">
-        <v>23.4</v>
+        <v>64.91015625</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4781,7 +4781,7 @@
         <v>33</v>
       </c>
       <c r="B15">
-        <v>77.25</v>
+        <v>96.35009765625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4789,7 +4789,7 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>38.27</v>
+        <v>59.659912109375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4797,7 +4797,7 @@
         <v>35</v>
       </c>
       <c r="B17">
-        <v>23.3</v>
+        <v>59.909912109375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>36</v>
       </c>
       <c r="B18">
-        <v>46.36</v>
+        <v>74.41015625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>37</v>
       </c>
       <c r="B19">
-        <v>38.37</v>
+        <v>71.759765625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>38</v>
       </c>
       <c r="B20">
-        <v>30.96</v>
+        <v>64.259765625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4829,7 +4829,7 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <v>29.76</v>
+        <v>53.260009765625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4837,7 +4837,7 @@
         <v>40</v>
       </c>
       <c r="B22">
-        <v>59.77</v>
+        <v>79.9599609375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4845,7 +4845,7 @@
         <v>41</v>
       </c>
       <c r="B23">
-        <v>54.62</v>
+        <v>81.4599609375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>42</v>
       </c>
       <c r="B24">
-        <v>33.52</v>
+        <v>66.259765625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4861,7 +4861,7 @@
         <v>43</v>
       </c>
       <c r="B25">
-        <v>38.82</v>
+        <v>75.9599609375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4869,7 +4869,7 @@
         <v>44</v>
       </c>
       <c r="B26">
-        <v>34.06</v>
+        <v>62.9599609375</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4877,7 +4877,7 @@
         <v>45</v>
       </c>
       <c r="B27">
-        <v>31.67</v>
+        <v>62.56005859375</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4885,7 +4885,7 @@
         <v>46</v>
       </c>
       <c r="B28">
-        <v>62.32</v>
+        <v>80.91015625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4893,7 +4893,7 @@
         <v>47</v>
       </c>
       <c r="B29">
-        <v>42.82</v>
+        <v>50.31005859375</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4901,7 +4901,7 @@
         <v>48</v>
       </c>
       <c r="B30">
-        <v>37.72</v>
+        <v>70.35986328125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4909,7 +4909,7 @@
         <v>49</v>
       </c>
       <c r="B31">
-        <v>52.85</v>
+        <v>83.64990234375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4917,7 +4917,7 @@
         <v>50</v>
       </c>
       <c r="B32">
-        <v>37.94</v>
+        <v>69.39013671875</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4925,7 +4925,7 @@
         <v>51</v>
       </c>
       <c r="B33">
-        <v>41.48</v>
+        <v>79.1298828125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4933,7 +4933,7 @@
         <v>52</v>
       </c>
       <c r="B34">
-        <v>39.22</v>
+        <v>43.010009765625</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>53</v>
       </c>
       <c r="B35">
-        <v>35.25</v>
+        <v>90.10009765625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>54</v>
       </c>
       <c r="B36">
-        <v>39.03</v>
+        <v>62.97998046875</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>55</v>
       </c>
       <c r="B37">
-        <v>35.36</v>
+        <v>65.4599609375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4965,7 +4965,7 @@
         <v>56</v>
       </c>
       <c r="B38">
-        <v>37.36</v>
+        <v>71.06005859375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4973,7 +4973,7 @@
         <v>57</v>
       </c>
       <c r="B39">
-        <v>39.52</v>
+        <v>69.9599609375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4981,7 +4981,7 @@
         <v>58</v>
       </c>
       <c r="B40">
-        <v>47.97</v>
+        <v>77.41015625</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4989,7 +4989,7 @@
         <v>59</v>
       </c>
       <c r="B41">
-        <v>52.72</v>
+        <v>75.60986328125</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4997,7 +4997,7 @@
         <v>60</v>
       </c>
       <c r="B42">
-        <v>38.27</v>
+        <v>76.509765625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>61</v>
       </c>
       <c r="B43">
-        <v>43.77</v>
+        <v>63.9599609375</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>62</v>
       </c>
       <c r="B44">
-        <v>51.33</v>
+        <v>78.93017578125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5021,7 +5021,7 @@
         <v>63</v>
       </c>
       <c r="B45">
-        <v>40.21</v>
+        <v>70.56005859375</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>64</v>
       </c>
       <c r="B46">
-        <v>44.92</v>
+        <v>54.7099609375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5037,7 +5037,7 @@
         <v>65</v>
       </c>
       <c r="B47">
-        <v>17.52</v>
+        <v>18.81005859375</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5045,7 +5045,7 @@
         <v>66</v>
       </c>
       <c r="B48">
-        <v>44.17</v>
+        <v>70.81005859375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>67</v>
       </c>
       <c r="B49">
-        <v>37.96</v>
+        <v>41.860107421875</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>68</v>
       </c>
       <c r="B50">
-        <v>56.07</v>
+        <v>73.35986328125</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>69</v>
       </c>
       <c r="B51">
-        <v>52.33</v>
+        <v>69.52978515625</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5077,7 +5077,7 @@
         <v>70</v>
       </c>
       <c r="B52">
-        <v>49.86</v>
+        <v>68.06005859375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>71</v>
       </c>
       <c r="B53">
-        <v>51.67</v>
+        <v>83.56005859375</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>72</v>
       </c>
       <c r="B54">
-        <v>34.56</v>
+        <v>62.159912109375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>73</v>
       </c>
       <c r="B55">
-        <v>55.71</v>
+        <v>85.85986328125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>74</v>
       </c>
       <c r="B56">
-        <v>19.75</v>
+        <v>65.16015625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5117,7 +5117,7 @@
         <v>75</v>
       </c>
       <c r="B57">
-        <v>35.87</v>
+        <v>69.9599609375</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5125,7 +5125,7 @@
         <v>76</v>
       </c>
       <c r="B58">
-        <v>41.27</v>
+        <v>71.4599609375</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5133,7 +5133,7 @@
         <v>77</v>
       </c>
       <c r="B59">
-        <v>52.57</v>
+        <v>84.4599609375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5141,7 +5141,7 @@
         <v>78</v>
       </c>
       <c r="B60">
-        <v>29.86</v>
+        <v>62.06005859375</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5149,7 +5149,7 @@
         <v>79</v>
       </c>
       <c r="B61">
-        <v>122.78</v>
+        <v>124.68017578125</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5183,439 +5183,439 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>122.78</v>
+        <v>124.68017578125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>88.2</v>
+        <v>96.35009765625</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>77.25</v>
+        <v>91.10009765625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>62.32</v>
+        <v>90.10009765625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>59.77</v>
+        <v>87.330078125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B7">
-        <v>56.07</v>
+        <v>85.85986328125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B8">
-        <v>55.71</v>
+        <v>84.4599609375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B9">
-        <v>55.53</v>
+        <v>83.64990234375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>54.62</v>
+        <v>83.56005859375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>53.26</v>
+        <v>81.4599609375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>52.85</v>
+        <v>80.91015625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>52.72</v>
+        <v>80.85986328125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>52.57</v>
+        <v>79.9599609375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B15">
-        <v>52.52</v>
+        <v>79.1298828125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B16">
-        <v>52.33</v>
+        <v>78.93017578125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B17">
-        <v>51.67</v>
+        <v>77.41015625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>51.33</v>
+        <v>76.509765625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>49.97</v>
+        <v>76.06005859375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B20">
-        <v>49.86</v>
+        <v>75.9599609375</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>47.97</v>
+        <v>75.60986328125</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B22">
-        <v>47.92</v>
+        <v>74.41015625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>47.72</v>
+        <v>73.9599609375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B24">
-        <v>46.36</v>
+        <v>73.35986328125</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B25">
-        <v>46.27</v>
+        <v>71.759765625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B26">
-        <v>44.92</v>
+        <v>71.4599609375</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>44.17</v>
+        <v>71.35986328125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B28">
-        <v>43.77</v>
+        <v>71.06005859375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B29">
-        <v>42.82</v>
+        <v>70.81005859375</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B30">
-        <v>41.48</v>
+        <v>70.56005859375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B31">
-        <v>41.27</v>
+        <v>70.35986328125</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B32">
-        <v>40.21</v>
+        <v>69.9599609375</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B33">
-        <v>39.52</v>
+        <v>69.9599609375</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B34">
-        <v>39.22</v>
+        <v>69.52978515625</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B35">
-        <v>39.03</v>
+        <v>69.39013671875</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>38.82</v>
+        <v>68.10986328125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B37">
-        <v>38.37</v>
+        <v>68.06005859375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>38.27</v>
+        <v>66.259765625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B39">
-        <v>38.27</v>
+        <v>65.4599609375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B40">
-        <v>37.96</v>
+        <v>65.16015625</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>37.94</v>
+        <v>64.91015625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B42">
-        <v>37.72</v>
+        <v>64.259765625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B43">
-        <v>37.36</v>
+        <v>63.9599609375</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B44">
-        <v>36.92</v>
+        <v>63.4599609375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>35.87</v>
+        <v>62.97998046875</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>35.36</v>
+        <v>62.9599609375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>35.25</v>
+        <v>62.56005859375</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B48">
-        <v>34.72</v>
+        <v>62.159912109375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B49">
-        <v>34.56</v>
+        <v>62.06005859375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B50">
-        <v>34.06</v>
+        <v>61.81005859375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B51">
-        <v>33.52</v>
+        <v>59.909912109375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B52">
-        <v>31.67</v>
+        <v>59.659912109375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B53">
-        <v>30.96</v>
+        <v>58.56005859375</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>30.67</v>
+        <v>54.7099609375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B55">
-        <v>29.86</v>
+        <v>53.260009765625</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B56">
-        <v>29.76</v>
+        <v>50.31005859375</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5623,31 +5623,31 @@
         <v>24</v>
       </c>
       <c r="B57">
-        <v>26.64</v>
+        <v>47.639892578125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58">
-        <v>23.4</v>
+        <v>46.7099609375</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B59">
-        <v>23.3</v>
+        <v>43.010009765625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>19.75</v>
+        <v>41.860107421875</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>17.52</v>
+        <v>18.81005859375</v>
       </c>
     </row>
   </sheetData>
@@ -5678,34 +5678,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>254.46994140625</v>
+        <v>262.509765625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>240.77</v>
+        <v>262.1298828125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>235.289921875</v>
+        <v>260.9599609375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B5">
-        <v>228.4198046875</v>
+        <v>256.3701171875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5713,111 +5713,111 @@
         <v>58</v>
       </c>
       <c r="B6">
-        <v>225.139921875</v>
+        <v>254.580078125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B7">
-        <v>222.38005859375</v>
+        <v>252.38037109375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>222.060234375</v>
+        <v>250.58984375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>221.77</v>
+        <v>248.579833984375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B10">
-        <v>221.6898828125</v>
+        <v>244.10986328125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>212.9698046875</v>
+        <v>243.1796875</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B12">
-        <v>212.21990234375</v>
+        <v>243.159912109375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B13">
-        <v>211.969921875</v>
+        <v>242.56005859375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>211.379609375</v>
+        <v>240.85986328125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>210.7903125</v>
+        <v>240.650390625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B16">
-        <v>210.74021484375</v>
+        <v>239.669921875</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>209.9201953125</v>
+        <v>238.43017578125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>208.73982421875</v>
+        <v>236.189697265625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B19">
-        <v>206.560244140625</v>
+        <v>235.3798828125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5825,31 +5825,31 @@
         <v>76</v>
       </c>
       <c r="B20">
-        <v>204.100078125</v>
+        <v>234.2900390625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B21">
-        <v>202.799931640625</v>
+        <v>234.16015625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>200.18009765625</v>
+        <v>231.23974609375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>197.5302734375</v>
+        <v>230.5595703125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5857,239 +5857,239 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>197.2201953125</v>
+        <v>225.56005859375</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B25">
-        <v>195.69021484375</v>
+        <v>225.190185546875</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26">
-        <v>195.090224609375</v>
+        <v>224.91015625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27">
-        <v>194.880048828125</v>
+        <v>224.81005859375</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>194.46</v>
+        <v>224.2802734375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B29">
-        <v>194.44998046875</v>
+        <v>223.259765625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B30">
-        <v>192.99998046875</v>
+        <v>222.9296875</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B31">
-        <v>192.9096875</v>
+        <v>222.480224609375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>191.21009765625</v>
+        <v>219.41015625</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B33">
-        <v>191.05970703125</v>
+        <v>217.3798828125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B34">
-        <v>190.189921875</v>
+        <v>217.33984375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B35">
-        <v>189.910205078125</v>
+        <v>216.76025390625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>184.54001953125</v>
+        <v>216.080078125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B37">
-        <v>184.52986328125</v>
+        <v>213.509765625</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B38">
-        <v>183.35990234375</v>
+        <v>210.1904296875</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B39">
-        <v>182.77029296875</v>
+        <v>205.60009765625</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>178.74029296875</v>
+        <v>205.07958984375</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B41">
-        <v>178.26</v>
+        <v>204.72998046875</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B42">
-        <v>177.54994140625</v>
+        <v>201.330322265625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>176.029921875</v>
+        <v>201.320068359375</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <v>171.870048828125</v>
+        <v>201.06005859375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>171.77982421875</v>
+        <v>197.14013671875</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B46">
-        <v>171.35009765625</v>
+        <v>195.060302734375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <v>170.520166015625</v>
+        <v>194.880126953125</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B48">
-        <v>169.440263671875</v>
+        <v>194.31982421875</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B49">
-        <v>169.409912109375</v>
+        <v>194.22998046875</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>167.180146484375</v>
+        <v>192.810302734375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>166.490263671875</v>
+        <v>191.130126953125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B52">
-        <v>166.250078125</v>
+        <v>190.740234375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B53">
-        <v>164.49998046875</v>
+        <v>188.510009765625</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -6097,55 +6097,55 @@
         <v>24</v>
       </c>
       <c r="B54">
-        <v>161.86998046875</v>
+        <v>182.869873046875</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B55">
-        <v>160.979814453125</v>
+        <v>180.56982421875</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B56">
-        <v>160.3002734375</v>
+        <v>179.360107421875</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>157.740166015625</v>
+        <v>171.3099365234375</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>157.4198779296875</v>
+        <v>170.769775390625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B59">
-        <v>157.069814453125</v>
+        <v>170.2802734375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>153.550146484375</v>
+        <v>165.7900390625</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6153,7 +6153,7 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>134.240029296875</v>
+        <v>138.14013671875</v>
       </c>
     </row>
   </sheetData>
